--- a/TrueAug_SAGE_WikipediaNetworkchameleon12-31-14:38:06_dir.xlsx
+++ b/TrueAug_SAGE_WikipediaNetworkchameleon12-31-14:38:06_dir.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Epoch0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Split" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Epoch1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -853,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:A523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,798 +873,6758 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:113, Val_loss:  2.79, time: 17.03, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:521, Val_loss:  4.15, time: 14.09, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:112, Val_loss:  2.27, time: 11.95, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:520, Val_loss:  5.46, time: 12.93, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:111, Val_loss:  2.76, time: 12.75, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:519, Val_loss:  4.18, time: 15.32, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:110, Val_loss:  2.33, time: 14.90, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:518, Val_loss:  4.03, time: 17.30, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:109, Val_loss:  2.78, time: 17.48, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:517, Val_loss:  5.31, time: 17.33, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:108, Val_loss:  2.22, time: 17.28, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:516, Val_loss:  4.31, time: 18.30, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:107, Val_loss:  2.73, time: 13.63, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:515, Val_loss:  4.89, time: 15.57, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:106, Val_loss:  2.26, time: 17.33, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:514, Val_loss:  4.31, time: 13.83, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:105, Val_loss:  2.79, time: 15.69, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:513, Val_loss:  5.09, time: 18.85, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:104, Val_loss:  2.30, time: 14.59, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:512, Val_loss:  4.75, time: 15.71, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:103, Val_loss:  2.75, time: 15.24, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:511, Val_loss:  4.89, time: 18.79, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:102, Val_loss:  2.31, time: 16.69, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:510, Val_loss:  5.32, time: 15.08, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:101, Val_loss:  2.80, time: 15.68, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:509, Val_loss:  4.20, time: 14.77, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:100, Val_loss:  2.25, time: 19.19, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:508, Val_loss:  5.71, time: 15.89, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch: 99, Val_loss:  2.83, time: 14.99, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+          <t>Epoch:507, Val_loss:  4.12, time: 20.06, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch: 98, Val_loss:  2.31, time: 12.91, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:506, Val_loss:  5.48, time: 20.26, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch: 97, Val_loss:  2.77, time: 13.62, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:505, Val_loss:  4.27, time: 22.82, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch: 96, Val_loss:  2.42, time: 19.01, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:504, Val_loss:  5.61, time: 18.53, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch: 95, Val_loss:  2.77, time: 14.35, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:503, Val_loss:  4.61, time: 14.43, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch: 94, Val_loss:  2.36, time: 18.23, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:502, Val_loss:  5.34, time: 14.11, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch: 93, Val_loss:  2.70, time: 19.99, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:501, Val_loss:  4.80, time: 14.24, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch: 92, Val_loss:  2.31, time: 20.77, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:500, Val_loss:  5.09, time: 16.88, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch: 91, Val_loss:  2.73, time: 13.87, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:499, Val_loss:  4.74, time: 22.78, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch: 90, Val_loss:  2.36, time: 12.51, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:498, Val_loss:  4.76, time: 22.90, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch: 89, Val_loss:  2.65, time: 14.99, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:497, Val_loss:  4.81, time: 20.78, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch: 88, Val_loss:  2.30, time: 12.49, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:496, Val_loss:  4.21, time: 19.15, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch: 87, Val_loss:  2.71, time: 15.51, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:495, Val_loss:  4.67, time: 13.98, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch: 86, Val_loss:  2.31, time: 17.57, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:494, Val_loss:  4.71, time: 15.48, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch: 85, Val_loss:  2.65, time: 17.99, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:493, Val_loss:  4.71, time: 14.05, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch: 84, Val_loss:  2.33, time: 14.73, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:492, Val_loss:  5.33, time: 12.67, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch: 83, Val_loss:  2.72, time: 15.67, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:491, Val_loss:  4.39, time: 15.54, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch: 82, Val_loss:  2.38, time: 16.12, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:490, Val_loss:  5.53, time: 15.71, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch: 81, Val_loss:  2.59, time: 16.15, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:489, Val_loss:  4.14, time: 17.56, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch: 80, Val_loss:  2.41, time: 19.84, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:488, Val_loss:  6.02, time: 18.83, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch: 79, Val_loss:  2.59, time: 18.27, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:487, Val_loss:  4.28, time: 15.38, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch: 78, Val_loss:  2.31, time: 12.33, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:486, Val_loss:  6.40, time: 15.95, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch: 77, Val_loss:  2.61, time: 17.71, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:485, Val_loss:  4.00, time: 17.01, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch: 76, Val_loss:  2.33, time: 15.65, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:484, Val_loss:  5.80, time: 17.18, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch: 75, Val_loss:  2.62, time: 19.63, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:483, Val_loss:  4.18, time: 20.67, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch: 74, Val_loss:  2.31, time: 12.92, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:482, Val_loss:  6.67, time: 23.86, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch: 73, Val_loss:  2.60, time: 14.97, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:481, Val_loss:  3.96, time: 13.67, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch: 72, Val_loss:  2.27, time: 17.74, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:480, Val_loss:  6.06, time: 15.53, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch: 71, Val_loss:  2.57, time: 19.80, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:479, Val_loss:  4.30, time: 20.66, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch: 70, Val_loss:  2.30, time: 14.37, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:478, Val_loss:  5.65, time: 17.24, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch: 69, Val_loss:  2.55, time: 19.49, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:477, Val_loss:  4.56, time: 18.98, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch: 68, Val_loss:  2.21, time: 13.30, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:476, Val_loss:  5.80, time: 17.16, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch: 67, Val_loss:  2.52, time: 19.40, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:475, Val_loss:  5.19, time: 15.20, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch: 66, Val_loss:  2.26, time: 14.91, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:474, Val_loss:  5.23, time: 15.02, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch: 65, Val_loss:  2.56, time: 13.99, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:473, Val_loss:  4.86, time: 11.65, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch: 64, Val_loss:  2.30, time: 13.43, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:472, Val_loss:  4.47, time: 16.09, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch: 63, Val_loss:  2.48, time: 14.32, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:471, Val_loss:  4.61, time: 15.82, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch: 62, Val_loss:  2.25, time: 18.28, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:470, Val_loss:  4.78, time: 24.52, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch: 61, Val_loss:  2.54, time: 12.63, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:469, Val_loss:  4.52, time: 21.55, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch: 60, Val_loss:  2.16, time: 14.66, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:468, Val_loss:  6.26, time: 25.46, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch: 59, Val_loss:  2.56, time: 14.48, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+          <t>Epoch:467, Val_loss:  3.72, time: 20.77, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch: 58, Val_loss:  2.22, time: 15.08, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:466, Val_loss:  4.88, time: 22.76, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch: 57, Val_loss:  2.51, time: 20.27, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:465, Val_loss:  4.11, time: 17.07, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch: 56, Val_loss:  2.24, time: 19.49, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:464, Val_loss:  5.74, time: 16.98, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch: 55, Val_loss:  2.49, time: 13.93, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:463, Val_loss:  4.61, time: 18.81, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch: 54, Val_loss:  2.22, time: 16.22, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:462, Val_loss:  5.80, time: 18.09, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch: 53, Val_loss:  2.41, time: 20.30, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:461, Val_loss:  4.80, time: 16.54, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch: 52, Val_loss:  2.18, time: 15.28, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:460, Val_loss:  5.44, time: 24.71, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch: 51, Val_loss:  2.44, time: 12.29, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:459, Val_loss:  5.16, time: 18.49, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch: 50, Val_loss:  2.13, time: 15.09, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:458, Val_loss:  5.56, time: 19.78, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch: 49, Val_loss:  2.46, time: 20.37, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:457, Val_loss:  4.97, time: 13.12, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch: 48, Val_loss:  2.15, time: 18.01, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:456, Val_loss:  5.87, time: 16.97, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch: 47, Val_loss:  2.38, time: 20.27, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:455, Val_loss:  4.44, time: 14.98, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch: 46, Val_loss:  2.18, time: 16.96, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:454, Val_loss:  5.74, time: 20.14, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch: 45, Val_loss:  2.39, time: 22.11, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:453, Val_loss:  4.31, time: 17.52, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch: 44, Val_loss:  2.11, time: 13.93, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:452, Val_loss:  5.67, time: 16.46, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch: 43, Val_loss:  2.39, time: 19.85, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:451, Val_loss:  4.17, time: 18.84, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch: 42, Val_loss:  2.11, time: 12.92, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:450, Val_loss:  5.55, time: 19.45, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch: 41, Val_loss:  2.32, time: 18.82, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:449, Val_loss:  4.30, time: 12.41, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch: 40, Val_loss:  2.10, time: 17.68, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:448, Val_loss:  6.19, time: 11.49, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch: 39, Val_loss:  2.29, time: 17.09, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:447, Val_loss:  4.18, time: 15.73, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch: 38, Val_loss:  2.04, time: 15.99, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:446, Val_loss:  6.58, time: 16.62, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch: 37, Val_loss:  2.22, time: 26.70, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:445, Val_loss:  4.68, time: 16.35, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch: 36, Val_loss:  2.04, time: 19.07, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:444, Val_loss:  6.55, time: 16.03, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch: 35, Val_loss:  2.27, time: 12.25, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:443, Val_loss:  4.82, time: 19.22, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch: 34, Val_loss:  2.04, time: 13.73, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:442, Val_loss:  6.51, time: 21.20, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch: 33, Val_loss:  2.25, time: 32.20, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:441, Val_loss:  5.18, time: 17.92, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch: 32, Val_loss:  2.00, time: 16.43, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:440, Val_loss:  6.91, time: 21.96, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch: 31, Val_loss:  2.19, time: 21.61, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+          <t>Epoch:439, Val_loss:  5.16, time: 20.83, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch: 30, Val_loss:  2.01, time: 18.20, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.84</t>
+          <t>Epoch:438, Val_loss:  7.47, time: 27.07, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch: 29, Val_loss:  2.16, time: 17.58, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.84</t>
+          <t>Epoch:437, Val_loss:  3.78, time: 21.75, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch: 28, Val_loss:  1.97, time: 14.79, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.84</t>
+          <t>Epoch:436, Val_loss:  4.94, time: 20.22, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch: 27, Val_loss:  2.13, time: 16.71, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.84</t>
+          <t>Epoch:435, Val_loss:  4.13, time: 22.77, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch: 26, Val_loss:  1.95, time: 17.47, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.85</t>
+          <t>Epoch:434, Val_loss:  5.36, time: 16.69, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch: 25, Val_loss:  2.15, time: 15.28, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.85</t>
+          <t>Epoch:433, Val_loss:  4.42, time: 17.22, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch: 24, Val_loss:  1.90, time: 21.65, test_Acc:  34.43, test_bacc:  33.44, test_f1:  22.60</t>
+          <t>Epoch:432, Val_loss:  5.27, time: 18.91, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch: 23, Val_loss:  2.08, time: 19.66, test_Acc:  34.43, test_bacc:  33.44, test_f1:  22.60</t>
+          <t>Epoch:431, Val_loss:  4.58, time: 20.23, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch: 22, Val_loss:  1.84, time: 15.04, test_Acc:  34.43, test_bacc:  33.47, test_f1:  22.23</t>
+          <t>Epoch:430, Val_loss:  4.51, time: 18.35, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch: 21, Val_loss:  2.03, time: 16.84, test_Acc:  34.43, test_bacc:  33.47, test_f1:  22.23</t>
+          <t>Epoch:429, Val_loss:  5.12, time: 20.69, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch: 20, Val_loss:  1.84, time: 19.45, test_Acc:  33.77, test_bacc:  32.82, test_f1:  21.50</t>
+          <t>Epoch:428, Val_loss:  4.10, time: 21.21, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch: 19, Val_loss:  2.01, time: 21.72, test_Acc:  33.77, test_bacc:  32.82, test_f1:  21.50</t>
+          <t>Epoch:427, Val_loss:  5.43, time: 18.49, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch: 18, Val_loss:  1.78, time: 18.62, test_Acc:  34.21, test_bacc:  33.23, test_f1:  21.84</t>
+          <t>Epoch:426, Val_loss:  3.82, time: 18.86, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch: 17, Val_loss:  2.00, time: 22.10, test_Acc:  34.21, test_bacc:  33.23, test_f1:  21.84</t>
+          <t>Epoch:425, Val_loss:  5.46, time: 19.97, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch: 16, Val_loss:  1.76, time: 21.81, test_Acc:  34.21, test_bacc:  33.22, test_f1:  22.15</t>
+          <t>Epoch:424, Val_loss:  4.07, time: 17.36, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch: 15, Val_loss:  1.95, time: 20.10, test_Acc:  34.21, test_bacc:  33.22, test_f1:  22.15</t>
+          <t>Epoch:423, Val_loss:  4.93, time: 18.87, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch: 14, Val_loss:  1.75, time: 20.29, test_Acc:  33.99, test_bacc:  32.99, test_f1:  21.71</t>
+          <t>Epoch:422, Val_loss:  4.00, time: 15.80, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch: 13, Val_loss:  1.92, time: 19.42, test_Acc:  33.99, test_bacc:  32.99, test_f1:  21.71</t>
+          <t>Epoch:421, Val_loss:  4.89, time: 17.45, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch: 12, Val_loss:  1.72, time: 14.35, test_Acc:  34.65, test_bacc:  33.58, test_f1:  22.25</t>
+          <t>Epoch:420, Val_loss:  4.30, time: 19.92, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch: 11, Val_loss:  1.87, time: 19.39, test_Acc:  34.65, test_bacc:  33.58, test_f1:  22.25</t>
+          <t>Epoch:419, Val_loss:  3.97, time: 17.87, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch: 10, Val_loss:  1.69, time: 19.92, test_Acc:  30.92, test_bacc:  29.38, test_f1:  19.45</t>
+          <t>Epoch:418, Val_loss:  4.73, time: 18.65, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:  9, Val_loss:  1.85, time: 18.92, test_Acc:  30.92, test_bacc:  29.38, test_f1:  19.45</t>
+          <t>Epoch:417, Val_loss:  4.29, time: 21.87, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:  8, Val_loss:  1.69, time: 17.60, test_Acc:  28.51, test_bacc:  26.68, test_f1:  16.89</t>
+          <t>Epoch:416, Val_loss:  4.57, time: 15.16, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:  7, Val_loss:  1.74, time: 21.13, test_Acc:  28.51, test_bacc:  26.68, test_f1:  16.89</t>
+          <t>Epoch:415, Val_loss:  4.54, time: 21.14, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:  6, Val_loss:  1.70, time: 19.93, test_Acc:  26.32, test_bacc:  24.30, test_f1:  14.57</t>
+          <t>Epoch:414, Val_loss:  4.55, time: 20.22, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  1.62, time: 34.32, test_Acc:  26.75, test_bacc:  24.78, test_f1:  15.22</t>
+          <t>Epoch:413, Val_loss:  5.00, time: 21.77, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  1.62, time: 33.82, test_Acc:  25.88, test_bacc:  23.79, test_f1:  14.03</t>
+          <t>Epoch:412, Val_loss:  4.97, time: 23.18, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  1.59, time: 28.24, test_Acc:  22.81, test_bacc:  20.48, test_f1:   8.28</t>
+          <t>Epoch:411, Val_loss:  5.73, time: 21.43, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  1.59, time: 25.58, test_Acc:  22.37, test_bacc:  20.00, test_f1:   7.31</t>
+          <t>Epoch:410, Val_loss:  4.88, time: 22.04, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  1.59, time: 47.46, test_Acc:  22.37, test_bacc:  20.00, test_f1:   7.31</t>
+          <t>Epoch:409, Val_loss:  5.27, time: 22.15, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>Epoch:408, Val_loss:  4.76, time: 25.04, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:407, Val_loss:  4.57, time: 24.25, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:406, Val_loss:  4.54, time: 19.11, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:405, Val_loss:  4.91, time: 24.45, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:404, Val_loss:  4.78, time: 19.67, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:403, Val_loss:  4.93, time: 19.45, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:402, Val_loss:  4.91, time: 21.88, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:401, Val_loss:  5.03, time: 18.12, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:400, Val_loss:  4.95, time: 18.23, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:399, Val_loss:  5.19, time: 16.17, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:398, Val_loss:  5.16, time: 14.05, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:397, Val_loss:  5.12, time: 17.50, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:396, Val_loss:  5.13, time: 18.62, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:395, Val_loss:  5.87, time: 15.59, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:394, Val_loss:  4.39, time: 16.22, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:393, Val_loss:  6.26, time: 12.66, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:392, Val_loss:  3.65, time: 18.68, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:391, Val_loss:  5.31, time: 17.34, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:390, Val_loss:  4.02, time: 15.78, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:389, Val_loss:  5.12, time: 16.23, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:388, Val_loss:  5.08, time: 17.18, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:387, Val_loss:  4.89, time: 13.85, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:386, Val_loss:  5.17, time: 18.52, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:385, Val_loss:  4.51, time: 19.51, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:384, Val_loss:  5.90, time: 16.11, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:383, Val_loss:  3.39, time: 14.73, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:382, Val_loss:  5.00, time: 15.21, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:381, Val_loss:  4.37, time: 17.70, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:380, Val_loss:  4.32, time: 18.95, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:379, Val_loss:  5.60, time: 18.11, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:378, Val_loss:  4.74, time: 19.38, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:377, Val_loss:  4.35, time: 18.45, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:376, Val_loss:  6.13, time: 23.71, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:375, Val_loss:  4.33, time: 22.03, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:374, Val_loss:  6.16, time: 14.61, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:373, Val_loss:  3.97, time: 26.84, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:372, Val_loss:  6.71, time: 21.66, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:371, Val_loss:  4.04, time: 12.86, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:370, Val_loss:  4.76, time: 16.07, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:369, Val_loss:  4.36, time: 14.14, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:368, Val_loss:  4.25, time: 19.58, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:367, Val_loss:  4.47, time: 15.72, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:366, Val_loss:  4.50, time: 16.19, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:365, Val_loss:  4.65, time: 13.34, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:364, Val_loss:  4.84, time: 12.11, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:363, Val_loss:  4.47, time: 13.63, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:362, Val_loss:  5.45, time: 14.89, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:361, Val_loss:  4.28, time: 16.82, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:360, Val_loss:  5.33, time: 13.83, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:359, Val_loss:  4.06, time: 15.05, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:358, Val_loss:  4.86, time: 15.15, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:357, Val_loss:  4.01, time: 14.99, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:356, Val_loss:  4.52, time: 14.42, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:355, Val_loss:  4.17, time: 20.32, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:354, Val_loss:  4.68, time: 14.38, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:353, Val_loss:  3.94, time: 17.44, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:352, Val_loss:  5.06, time: 14.67, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:351, Val_loss:  4.37, time: 16.15, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:350, Val_loss:  5.27, time: 25.92, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:349, Val_loss:  3.74, time: 17.01, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:348, Val_loss:  5.62, time: 20.35, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:347, Val_loss:  3.25, time: 20.50, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:346, Val_loss:  6.44, time: 19.34, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:345, Val_loss:  3.62, time: 22.65, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:344, Val_loss:  5.59, time: 17.89, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:343, Val_loss:  3.26, time: 16.13, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:342, Val_loss:  6.03, time: 15.96, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:341, Val_loss:  3.30, time: 16.09, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:340, Val_loss:  6.05, time: 18.74, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:339, Val_loss:  3.73, time: 16.81, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:338, Val_loss:  6.45, time: 12.81, test_Acc:  33.99, test_bacc:  33.82, test_f1:  23.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:337, Val_loss:  3.80, time: 15.22, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:336, Val_loss:  6.65, time: 19.67, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:335, Val_loss:  3.98, time: 18.91, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:334, Val_loss:  6.57, time: 21.31, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:333, Val_loss:  3.94, time: 20.53, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:332, Val_loss:  5.58, time: 18.75, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:331, Val_loss:  4.51, time: 15.85, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:330, Val_loss:  6.47, time: 23.98, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:329, Val_loss:  4.21, time: 18.44, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:328, Val_loss:  6.22, time: 19.64, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:327, Val_loss:  4.28, time: 14.48, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:326, Val_loss:  6.41, time: 21.56, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:325, Val_loss:  3.81, time: 20.39, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:324, Val_loss:  6.44, time: 23.97, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:323, Val_loss:  4.42, time: 17.13, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:322, Val_loss:  6.13, time: 20.48, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:321, Val_loss:  4.72, time: 18.02, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:320, Val_loss:  4.87, time: 26.46, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:319, Val_loss:  4.36, time: 17.98, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:318, Val_loss:  5.33, time: 19.97, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:317, Val_loss:  4.18, time: 19.84, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:316, Val_loss:  5.60, time: 19.93, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:315, Val_loss:  4.38, time: 15.99, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:314, Val_loss:  5.58, time: 16.34, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:313, Val_loss:  4.60, time: 18.63, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:312, Val_loss:  5.87, time: 17.49, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:311, Val_loss:  3.67, time: 16.09, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:310, Val_loss:  5.67, time: 15.82, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:309, Val_loss:  4.12, time: 18.50, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:308, Val_loss:  5.52, time: 19.92, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:307, Val_loss:  4.45, time: 16.48, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:306, Val_loss:  5.32, time: 13.72, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:305, Val_loss:  4.26, time: 19.23, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:304, Val_loss:  5.67, time: 16.41, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:303, Val_loss:  3.90, time: 16.52, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:302, Val_loss:  6.48, time: 16.90, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:301, Val_loss:  3.76, time: 16.41, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:300, Val_loss:  5.95, time: 16.28, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:299, Val_loss:  3.99, time: 22.53, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:298, Val_loss:  6.22, time: 19.07, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:297, Val_loss:  4.00, time: 23.38, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:296, Val_loss:  5.76, time: 20.90, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:295, Val_loss:  4.38, time: 19.60, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:294, Val_loss:  6.67, time: 18.75, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:293, Val_loss:  3.95, time: 17.11, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:292, Val_loss:  6.38, time: 13.77, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:291, Val_loss:  3.87, time: 18.91, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:290, Val_loss:  7.29, time: 17.97, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:289, Val_loss:  4.08, time: 13.84, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:288, Val_loss:  5.89, time: 19.17, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:287, Val_loss:  5.13, time: 17.10, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:286, Val_loss:  4.39, time: 15.12, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:285, Val_loss:  6.37, time: 18.47, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:284, Val_loss:  3.94, time: 17.96, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:283, Val_loss:  7.09, time: 18.24, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:282, Val_loss:  3.88, time: 16.00, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:281, Val_loss:  6.28, time: 13.11, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:280, Val_loss:  4.56, time: 17.54, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:279, Val_loss:  7.41, time: 14.21, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:278, Val_loss:  4.60, time: 15.12, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:277, Val_loss:  7.73, time: 14.43, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:276, Val_loss:  4.41, time: 15.77, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:275, Val_loss:  9.17, time: 13.72, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:274, Val_loss:  3.95, time: 22.51, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:273, Val_loss:  5.77, time: 23.50, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:272, Val_loss:  4.66, time: 19.14, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:271, Val_loss:  5.31, time: 15.80, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:270, Val_loss:  5.41, time: 16.33, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:269, Val_loss:  5.14, time: 15.68, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:268, Val_loss:  5.44, time: 14.34, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:267, Val_loss:  4.53, time: 20.67, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:266, Val_loss:  5.79, time: 15.23, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:265, Val_loss:  4.00, time: 19.48, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:264, Val_loss:  6.32, time: 18.21, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:263, Val_loss:  3.93, time: 17.14, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:262, Val_loss:  6.33, time: 17.46, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:261, Val_loss:  4.45, time: 16.66, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:260, Val_loss:  6.89, time: 19.28, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:259, Val_loss:  4.49, time: 20.65, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:258, Val_loss:  6.11, time: 24.29, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:257, Val_loss:  4.76, time: 22.71, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:256, Val_loss:  5.87, time: 24.43, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:255, Val_loss:  4.79, time: 21.52, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:254, Val_loss:  5.60, time: 23.98, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:253, Val_loss:  5.39, time: 20.40, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:252, Val_loss:  5.46, time: 18.66, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:251, Val_loss:  4.98, time: 18.31, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:250, Val_loss:  6.51, time: 14.82, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:249, Val_loss:  4.59, time: 13.82, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:248, Val_loss:  6.85, time: 21.19, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:247, Val_loss:  4.50, time: 14.63, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:246, Val_loss:  6.89, time: 18.44, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:245, Val_loss:  4.93, time: 20.72, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:244, Val_loss:  6.93, time: 17.30, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:243, Val_loss:  5.05, time: 20.34, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:242, Val_loss:  6.92, time: 16.14, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:241, Val_loss:  5.05, time: 17.85, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:240, Val_loss:  7.05, time: 17.81, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:239, Val_loss:  5.23, time: 15.74, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:238, Val_loss:  6.27, time: 17.81, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:237, Val_loss:  5.03, time: 16.22, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:236, Val_loss:  6.36, time: 15.59, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:235, Val_loss:  4.34, time: 14.71, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:234, Val_loss:  6.35, time: 21.44, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:233, Val_loss:  5.84, time: 20.72, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:232, Val_loss:  4.21, time: 16.96, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:231, Val_loss:  6.42, time: 17.75, test_Acc:  33.77, test_bacc:  32.83, test_f1:  26.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:230, Val_loss:  3.92, time: 10.84, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:229, Val_loss:  6.24, time: 15.02, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:228, Val_loss:  4.09, time: 21.35, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:227, Val_loss:  5.16, time: 12.99, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:226, Val_loss:  4.90, time: 21.26, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:225, Val_loss:  5.45, time: 18.98, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:224, Val_loss:  4.71, time: 19.14, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:223, Val_loss:  6.53, time: 15.81, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:222, Val_loss:  4.15, time: 19.21, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:221, Val_loss:  6.89, time: 18.50, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:220, Val_loss:  4.13, time: 14.09, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:219, Val_loss:  7.86, time: 16.25, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:218, Val_loss:  3.38, time: 15.72, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:217, Val_loss:  4.79, time: 17.17, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:216, Val_loss:  5.18, time: 20.68, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:215, Val_loss:  4.38, time: 15.63, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:214, Val_loss:  4.98, time: 18.80, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:213, Val_loss:  4.17, time: 16.92, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:212, Val_loss:  5.66, time: 18.99, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:211, Val_loss:  3.96, time: 18.92, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:210, Val_loss:  5.96, time: 18.37, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:209, Val_loss:  4.09, time: 17.52, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:208, Val_loss:  6.07, time: 15.35, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:207, Val_loss:  4.47, time: 18.06, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:206, Val_loss:  5.11, time: 14.47, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:205, Val_loss:  5.02, time: 16.10, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:204, Val_loss:  5.57, time: 15.94, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:203, Val_loss:  5.26, time: 18.06, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:202, Val_loss:  5.66, time: 18.84, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:201, Val_loss:  5.80, time: 19.64, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:200, Val_loss:  6.21, time: 19.22, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:199, Val_loss:  5.31, time: 19.83, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:198, Val_loss:  6.79, time: 16.33, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:197, Val_loss:  4.72, time: 20.14, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:196, Val_loss:  7.63, time: 15.30, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:195, Val_loss:  4.18, time: 17.27, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:194, Val_loss:  6.94, time: 17.98, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:193, Val_loss:  4.25, time: 22.87, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:192, Val_loss:  7.03, time: 22.43, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:191, Val_loss:  4.46, time: 16.32, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:190, Val_loss:  6.32, time: 15.36, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:189, Val_loss:  4.93, time: 12.33, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:188, Val_loss:  6.25, time: 16.01, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:187, Val_loss:  5.12, time: 23.52, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:186, Val_loss:  6.52, time: 24.54, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:185, Val_loss:  5.18, time: 16.42, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:184, Val_loss:  6.73, time: 15.86, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:183, Val_loss:  4.94, time: 17.61, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:182, Val_loss:  6.53, time: 14.00, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:181, Val_loss:  7.06, time: 19.80, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:180, Val_loss:  5.34, time: 14.14, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:179, Val_loss:  8.04, time: 16.82, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:178, Val_loss:  4.38, time: 17.14, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:177, Val_loss:  8.38, time: 25.12, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:176, Val_loss:  4.21, time: 19.05, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:175, Val_loss:  7.44, time: 14.93, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:174, Val_loss:  4.43, time: 16.58, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:173, Val_loss:  7.55, time: 11.60, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:172, Val_loss:  4.80, time: 24.52, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:171, Val_loss:  7.80, time: 22.30, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:170, Val_loss:  4.69, time: 18.77, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:169, Val_loss:  8.17, time: 15.57, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:168, Val_loss:  4.32, time: 17.32, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:167, Val_loss:  7.64, time: 15.47, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:166, Val_loss:  4.57, time: 17.26, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:165, Val_loss:  8.39, time: 17.81, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:164, Val_loss:  4.52, time: 21.47, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:163, Val_loss:  8.95, time: 23.65, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:162, Val_loss:  4.15, time: 17.21, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:161, Val_loss:  8.28, time: 18.36, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:160, Val_loss:  4.67, time: 16.32, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:159, Val_loss:  6.57, time: 19.88, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:158, Val_loss:  6.19, time: 24.13, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:157, Val_loss:  5.81, time: 18.97, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:156, Val_loss:  7.00, time: 15.51, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:155, Val_loss:  7.33, time: 13.87, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:154, Val_loss:  6.23, time: 16.66, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:153, Val_loss:  5.69, time: 17.35, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:152, Val_loss:  8.61, time: 15.95, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:151, Val_loss:  4.04, time: 12.67, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:150, Val_loss:  7.70, time: 16.08, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:149, Val_loss:  4.11, time: 13.65, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:148, Val_loss:  7.74, time: 16.57, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:147, Val_loss:  3.98, time: 19.51, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:146, Val_loss:  7.36, time: 14.07, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:145, Val_loss:  4.29, time: 15.21, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:144, Val_loss:  7.47, time: 15.04, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:143, Val_loss:  4.53, time: 11.79, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:142, Val_loss:  7.16, time: 20.45, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:141, Val_loss:  4.58, time: 19.70, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:140, Val_loss:  6.93, time: 14.65, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:139, Val_loss:  4.55, time: 21.84, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:138, Val_loss:  7.19, time: 17.93, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:137, Val_loss:  4.25, time: 13.85, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:136, Val_loss:  7.17, time: 19.67, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:135, Val_loss:  3.65, time: 17.10, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:134, Val_loss:  7.99, time: 18.00, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:133, Val_loss:  3.02, time: 13.40, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:132, Val_loss:  7.59, time: 15.85, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:131, Val_loss:  3.01, time: 14.62, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:130, Val_loss:  7.33, time: 15.88, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:129, Val_loss:  3.25, time: 14.43, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:128, Val_loss:  6.67, time: 12.93, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:127, Val_loss:  3.56, time: 18.44, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:126, Val_loss:  6.37, time: 13.76, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:125, Val_loss:  3.86, time: 16.75, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:124, Val_loss:  6.58, time: 19.46, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:123, Val_loss:  5.85, time: 20.25, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:122, Val_loss:  9.53, time: 16.71, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:121, Val_loss: 11.56, time: 20.19, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:120, Val_loss:  2.31, time: 20.15, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:119, Val_loss:  2.72, time: 16.97, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch:118, Val_loss:  2.35, time: 10.23, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch:117, Val_loss:  2.75, time: 10.67, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch:116, Val_loss:  2.35, time: 15.01, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch:115, Val_loss:  2.76, time: 23.65, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch:114, Val_loss:  2.37, time: 19.68, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch:113, Val_loss:  2.79, time: 17.03, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch:112, Val_loss:  2.27, time: 11.95, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch:111, Val_loss:  2.76, time: 12.75, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch:110, Val_loss:  2.33, time: 14.90, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch:109, Val_loss:  2.78, time: 17.48, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch:108, Val_loss:  2.22, time: 17.28, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch:107, Val_loss:  2.73, time: 13.63, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch:106, Val_loss:  2.26, time: 17.33, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch:105, Val_loss:  2.79, time: 15.69, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch:104, Val_loss:  2.30, time: 14.59, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch:103, Val_loss:  2.75, time: 15.24, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch:102, Val_loss:  2.31, time: 16.69, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch:101, Val_loss:  2.80, time: 15.68, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch:100, Val_loss:  2.25, time: 19.19, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch: 99, Val_loss:  2.83, time: 14.99, test_Acc:  33.77, test_bacc:  32.82, test_f1:  23.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch: 98, Val_loss:  2.31, time: 12.91, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch: 97, Val_loss:  2.77, time: 13.62, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch: 96, Val_loss:  2.42, time: 19.01, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch: 95, Val_loss:  2.77, time: 14.35, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch: 94, Val_loss:  2.36, time: 18.23, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch: 93, Val_loss:  2.70, time: 19.99, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch: 92, Val_loss:  2.31, time: 20.77, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch: 91, Val_loss:  2.73, time: 13.87, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch: 90, Val_loss:  2.36, time: 12.51, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch: 89, Val_loss:  2.65, time: 14.99, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch: 88, Val_loss:  2.30, time: 12.49, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch: 87, Val_loss:  2.71, time: 15.51, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch: 86, Val_loss:  2.31, time: 17.57, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch: 85, Val_loss:  2.65, time: 17.99, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch: 84, Val_loss:  2.33, time: 14.73, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch: 83, Val_loss:  2.72, time: 15.67, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch: 82, Val_loss:  2.38, time: 16.12, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch: 81, Val_loss:  2.59, time: 16.15, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch: 80, Val_loss:  2.41, time: 19.84, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch: 79, Val_loss:  2.59, time: 18.27, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch: 78, Val_loss:  2.31, time: 12.33, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch: 77, Val_loss:  2.61, time: 17.71, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch: 76, Val_loss:  2.33, time: 15.65, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch: 75, Val_loss:  2.62, time: 19.63, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch: 74, Val_loss:  2.31, time: 12.92, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch: 73, Val_loss:  2.60, time: 14.97, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch: 72, Val_loss:  2.27, time: 17.74, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch: 71, Val_loss:  2.57, time: 19.80, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch: 70, Val_loss:  2.30, time: 14.37, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch: 69, Val_loss:  2.55, time: 19.49, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch: 68, Val_loss:  2.21, time: 13.30, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch: 67, Val_loss:  2.52, time: 19.40, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch: 66, Val_loss:  2.26, time: 14.91, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch: 65, Val_loss:  2.56, time: 13.99, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch: 64, Val_loss:  2.30, time: 13.43, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch: 63, Val_loss:  2.48, time: 14.32, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch: 62, Val_loss:  2.25, time: 18.28, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch: 61, Val_loss:  2.54, time: 12.63, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch: 60, Val_loss:  2.16, time: 14.66, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch: 59, Val_loss:  2.56, time: 14.48, test_Acc:  36.18, test_bacc:  35.21, test_f1:  25.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch: 58, Val_loss:  2.22, time: 15.08, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch: 57, Val_loss:  2.51, time: 20.27, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch: 56, Val_loss:  2.24, time: 19.49, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch: 55, Val_loss:  2.49, time: 13.93, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch: 54, Val_loss:  2.22, time: 16.22, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch: 53, Val_loss:  2.41, time: 20.30, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch: 52, Val_loss:  2.18, time: 15.28, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch: 51, Val_loss:  2.44, time: 12.29, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch: 50, Val_loss:  2.13, time: 15.09, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch: 49, Val_loss:  2.46, time: 20.37, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch: 48, Val_loss:  2.15, time: 18.01, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch: 47, Val_loss:  2.38, time: 20.27, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch: 46, Val_loss:  2.18, time: 16.96, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch: 45, Val_loss:  2.39, time: 22.11, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch: 44, Val_loss:  2.11, time: 13.93, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch: 43, Val_loss:  2.39, time: 19.85, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch: 42, Val_loss:  2.11, time: 12.92, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch: 41, Val_loss:  2.32, time: 18.82, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch: 40, Val_loss:  2.10, time: 17.68, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch: 39, Val_loss:  2.29, time: 17.09, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch: 38, Val_loss:  2.04, time: 15.99, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch: 37, Val_loss:  2.22, time: 26.70, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch: 36, Val_loss:  2.04, time: 19.07, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch: 35, Val_loss:  2.27, time: 12.25, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch: 34, Val_loss:  2.04, time: 13.73, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch: 33, Val_loss:  2.25, time: 32.20, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch: 32, Val_loss:  2.00, time: 16.43, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch: 31, Val_loss:  2.19, time: 21.61, test_Acc:  34.87, test_bacc:  33.95, test_f1:  22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch: 30, Val_loss:  2.01, time: 18.20, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch: 29, Val_loss:  2.16, time: 17.58, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch: 28, Val_loss:  1.97, time: 14.79, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch: 27, Val_loss:  2.13, time: 16.71, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch: 26, Val_loss:  1.95, time: 17.47, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch: 25, Val_loss:  2.15, time: 15.28, test_Acc:  34.43, test_bacc:  33.50, test_f1:  21.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch: 24, Val_loss:  1.90, time: 21.65, test_Acc:  34.43, test_bacc:  33.44, test_f1:  22.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch: 23, Val_loss:  2.08, time: 19.66, test_Acc:  34.43, test_bacc:  33.44, test_f1:  22.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch: 22, Val_loss:  1.84, time: 15.04, test_Acc:  34.43, test_bacc:  33.47, test_f1:  22.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch: 21, Val_loss:  2.03, time: 16.84, test_Acc:  34.43, test_bacc:  33.47, test_f1:  22.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch: 20, Val_loss:  1.84, time: 19.45, test_Acc:  33.77, test_bacc:  32.82, test_f1:  21.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch: 19, Val_loss:  2.01, time: 21.72, test_Acc:  33.77, test_bacc:  32.82, test_f1:  21.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Epoch: 18, Val_loss:  1.78, time: 18.62, test_Acc:  34.21, test_bacc:  33.23, test_f1:  21.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Epoch: 17, Val_loss:  2.00, time: 22.10, test_Acc:  34.21, test_bacc:  33.23, test_f1:  21.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Epoch: 16, Val_loss:  1.76, time: 21.81, test_Acc:  34.21, test_bacc:  33.22, test_f1:  22.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Epoch: 15, Val_loss:  1.95, time: 20.10, test_Acc:  34.21, test_bacc:  33.22, test_f1:  22.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Epoch: 14, Val_loss:  1.75, time: 20.29, test_Acc:  33.99, test_bacc:  32.99, test_f1:  21.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Epoch: 13, Val_loss:  1.92, time: 19.42, test_Acc:  33.99, test_bacc:  32.99, test_f1:  21.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Epoch: 12, Val_loss:  1.72, time: 14.35, test_Acc:  34.65, test_bacc:  33.58, test_f1:  22.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Epoch: 11, Val_loss:  1.87, time: 19.39, test_Acc:  34.65, test_bacc:  33.58, test_f1:  22.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Epoch: 10, Val_loss:  1.69, time: 19.92, test_Acc:  30.92, test_bacc:  29.38, test_f1:  19.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Epoch:  9, Val_loss:  1.85, time: 18.92, test_Acc:  30.92, test_bacc:  29.38, test_f1:  19.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Epoch:  8, Val_loss:  1.69, time: 17.60, test_Acc:  28.51, test_bacc:  26.68, test_f1:  16.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Epoch:  7, Val_loss:  1.74, time: 21.13, test_Acc:  28.51, test_bacc:  26.68, test_f1:  16.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Epoch:  6, Val_loss:  1.70, time: 19.93, test_Acc:  26.32, test_bacc:  24.30, test_f1:  14.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Epoch:  5, Val_loss:  1.62, time: 34.32, test_Acc:  26.75, test_bacc:  24.78, test_f1:  15.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  1.62, time: 33.82, test_Acc:  25.88, test_bacc:  23.79, test_f1:  14.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  1.59, time: 28.24, test_Acc:  22.81, test_bacc:  20.48, test_f1:   8.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  1.59, time: 25.58, test_Acc:  22.37, test_bacc:  20.00, test_f1:   7.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  1.59, time: 47.46, test_Acc:  22.37, test_bacc:  20.00, test_f1:   7.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
           <t>Epoch:  0, Val_loss:  1.61, time: 37.63, test_Acc:  22.37, test_bacc:  20.00, test_f1:   7.31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Split_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>split:   0, val_loss:   6.77, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A436"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Epoch:434, Val_loss:  4.83, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Epoch:433, Val_loss:  3.99, time: 11.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:432, Val_loss:  4.98, time: 10.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:431, Val_loss:  4.24, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:430, Val_loss:  5.41, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:429, Val_loss:  4.51, time: 17.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:428, Val_loss:  4.18, time: 15.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:427, Val_loss:  4.93, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:426, Val_loss:  3.44, time: 16.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:425, Val_loss:  4.97, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:424, Val_loss:  3.53, time: 13.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:423, Val_loss:  4.90, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:422, Val_loss:  4.14, time: 15.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:421, Val_loss:  4.86, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:420, Val_loss:  4.16, time: 18.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:419, Val_loss:  4.97, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:418, Val_loss:  4.23, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:417, Val_loss:  5.02, time: 15.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:416, Val_loss:  4.65, time: 15.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:415, Val_loss:  5.32, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:414, Val_loss:  4.74, time: 24.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:413, Val_loss:  5.14, time: 20.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:412, Val_loss:  5.28, time: 15.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:411, Val_loss:  5.90, time: 18.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:410, Val_loss:  5.43, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:409, Val_loss:  4.87, time: 20.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:408, Val_loss:  5.82, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:407, Val_loss:  3.95, time: 16.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:406, Val_loss:  5.23, time: 17.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:405, Val_loss:  4.47, time: 19.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:404, Val_loss:  5.53, time: 17.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:403, Val_loss:  4.57, time: 19.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:402, Val_loss:  5.49, time: 19.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:401, Val_loss:  5.10, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:400, Val_loss:  5.61, time: 18.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:399, Val_loss:  5.80, time: 19.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:398, Val_loss:  4.52, time: 17.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:397, Val_loss:  5.73, time: 14.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:396, Val_loss:  4.70, time: 20.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:395, Val_loss:  6.13, time: 17.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:394, Val_loss:  5.23, time: 25.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:393, Val_loss:  6.29, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:392, Val_loss:  5.49, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:391, Val_loss:  6.56, time: 11.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:390, Val_loss:  4.96, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:389, Val_loss:  6.45, time: 11.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:388, Val_loss:  5.86, time: 12.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:387, Val_loss:  4.85, time: 15.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:386, Val_loss:  6.93, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:385, Val_loss:  4.71, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:384, Val_loss:  6.13, time: 20.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:383, Val_loss:  4.64, time: 15.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:382, Val_loss:  6.32, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:381, Val_loss:  4.49, time: 15.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:380, Val_loss:  5.68, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:379, Val_loss:  4.77, time: 18.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:378, Val_loss:  5.51, time: 15.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:377, Val_loss:  5.48, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:376, Val_loss:  4.10, time: 17.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:375, Val_loss:  5.67, time: 13.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:374, Val_loss:  3.63, time: 10.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:373, Val_loss:  6.05, time: 12.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:372, Val_loss:  3.57, time: 11.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:371, Val_loss:  4.90, time: 12.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:370, Val_loss:  4.14, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:369, Val_loss:  5.01, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:368, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:367, Val_loss:  5.42, time: 16.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:366, Val_loss:  4.28, time: 14.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:365, Val_loss:  5.10, time: 13.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:364, Val_loss:  4.66, time: 14.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:363, Val_loss:  5.51, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:362, Val_loss:  4.67, time: 13.09, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:361, Val_loss:  4.74, time: 13.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:360, Val_loss:  5.07, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:359, Val_loss:  4.57, time: 12.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:358, Val_loss:  5.18, time: 14.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:357, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:356, Val_loss:  5.23, time: 16.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:355, Val_loss:  5.45, time: 15.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:354, Val_loss:  5.58, time: 17.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:353, Val_loss:  4.95, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:352, Val_loss:  5.14, time: 20.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:351, Val_loss:  4.88, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:350, Val_loss:  5.24, time: 20.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:349, Val_loss:  4.62, time: 22.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:348, Val_loss:  5.01, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:347, Val_loss:  4.71, time: 18.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:346, Val_loss:  5.26, time: 18.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:345, Val_loss:  4.90, time: 19.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:344, Val_loss:  5.97, time: 14.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:343, Val_loss:  5.01, time: 17.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:342, Val_loss:  5.41, time: 18.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:341, Val_loss:  5.63, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:340, Val_loss:  4.31, time: 15.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:339, Val_loss:  5.70, time: 15.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:338, Val_loss:  3.98, time: 16.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:337, Val_loss:  4.88, time: 15.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:336, Val_loss:  4.15, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:335, Val_loss:  4.79, time: 14.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:334, Val_loss:  4.81, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:333, Val_loss:  4.73, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:332, Val_loss:  4.84, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:331, Val_loss:  5.24, time: 14.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:330, Val_loss:  5.04, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:329, Val_loss:  5.62, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:328, Val_loss:  4.47, time: 16.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:327, Val_loss:  6.26, time: 12.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:326, Val_loss:  3.39, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:325, Val_loss:  6.66, time: 12.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:324, Val_loss:  3.74, time: 12.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:323, Val_loss:  5.08, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:322, Val_loss:  4.55, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:321, Val_loss:  5.07, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:320, Val_loss:  4.82, time: 13.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:319, Val_loss:  5.15, time: 15.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:318, Val_loss:  4.95, time: 18.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:317, Val_loss:  5.60, time: 18.57, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:316, Val_loss:  4.42, time: 23.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:315, Val_loss:  5.29, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:314, Val_loss:  5.22, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:313, Val_loss:  5.33, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:312, Val_loss:  4.92, time: 15.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:311, Val_loss:  5.17, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:310, Val_loss:  6.09, time: 13.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:309, Val_loss:  5.29, time: 14.04, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:308, Val_loss:  6.29, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:307, Val_loss:  4.11, time: 14.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:306, Val_loss:  6.29, time: 13.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:305, Val_loss:  3.31, time: 15.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:304, Val_loss:  4.69, time: 14.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:303, Val_loss:  3.63, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:302, Val_loss:  4.92, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:301, Val_loss:  3.74, time: 13.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:300, Val_loss:  5.03, time: 12.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:299, Val_loss:  3.53, time: 14.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:298, Val_loss:  5.65, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:297, Val_loss:  3.70, time: 14.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:296, Val_loss:  4.86, time: 15.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:295, Val_loss:  4.30, time: 17.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:294, Val_loss:  4.86, time: 16.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:293, Val_loss:  4.14, time: 17.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:292, Val_loss:  5.41, time: 13.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:291, Val_loss:  3.85, time: 16.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:290, Val_loss:  5.34, time: 13.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:289, Val_loss:  4.36, time: 14.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:288, Val_loss:  5.05, time: 11.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:287, Val_loss:  4.77, time: 15.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:286, Val_loss:  5.34, time: 18.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:285, Val_loss:  4.65, time: 15.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:284, Val_loss:  4.45, time: 18.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:283, Val_loss:  5.37, time: 18.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:282, Val_loss:  3.57, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:281, Val_loss:  5.48, time: 13.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:280, Val_loss:  4.01, time: 16.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:279, Val_loss:  5.63, time: 12.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:278, Val_loss:  3.76, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:277, Val_loss:  5.84, time: 16.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:276, Val_loss:  3.87, time: 17.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:275, Val_loss:  6.21, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:274, Val_loss:  3.89, time: 16.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:273, Val_loss:  6.15, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:272, Val_loss:  3.98, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:271, Val_loss:  5.38, time: 21.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:270, Val_loss:  4.30, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:269, Val_loss:  5.62, time: 13.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:268, Val_loss:  4.65, time: 11.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:267, Val_loss:  5.48, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:266, Val_loss:  4.93, time: 15.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:265, Val_loss:  5.89, time: 14.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:264, Val_loss:  5.15, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:263, Val_loss:  6.47, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:262, Val_loss:  5.20, time: 13.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:261, Val_loss:  6.70, time: 15.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:260, Val_loss:  4.30, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:259, Val_loss:  6.39, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:258, Val_loss:  4.72, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:257, Val_loss:  6.64, time: 20.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:256, Val_loss:  4.59, time: 15.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:255, Val_loss:  7.32, time: 16.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:254, Val_loss:  4.79, time: 16.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:253, Val_loss:  7.12, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:252, Val_loss:  6.40, time: 17.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:251, Val_loss:  4.57, time: 18.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:250, Val_loss:  6.20, time: 15.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:249, Val_loss:  3.66, time: 12.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:248, Val_loss:  6.15, time: 17.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:247, Val_loss:  4.09, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:246, Val_loss:  6.44, time: 17.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:245, Val_loss:  3.88, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:244, Val_loss:  6.54, time: 13.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:243, Val_loss:  3.79, time: 17.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:242, Val_loss:  5.50, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:241, Val_loss:  5.06, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:240, Val_loss:  5.35, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:239, Val_loss:  5.90, time: 11.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:238, Val_loss:  4.97, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:237, Val_loss:  5.90, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:236, Val_loss:  3.75, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:235, Val_loss:  6.91, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:234, Val_loss:  3.35, time: 15.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:233, Val_loss:  5.52, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:232, Val_loss:  4.01, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:231, Val_loss:  5.97, time: 12.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:230, Val_loss:  3.98, time: 18.03, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:229, Val_loss:  5.17, time: 16.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:228, Val_loss:  4.63, time: 19.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:227, Val_loss:  5.32, time: 16.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:226, Val_loss:  4.95, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:225, Val_loss:  4.86, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:224, Val_loss:  5.00, time: 14.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:223, Val_loss:  5.17, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:222, Val_loss:  4.97, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:221, Val_loss:  4.42, time: 14.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:220, Val_loss:  5.39, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:219, Val_loss:  3.93, time: 11.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:218, Val_loss:  5.42, time: 13.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:217, Val_loss:  4.08, time: 20.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:216, Val_loss:  5.61, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:215, Val_loss:  4.45, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:214, Val_loss:  5.97, time: 15.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:213, Val_loss:  4.62, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:212, Val_loss:  5.81, time: 13.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:211, Val_loss:  4.63, time: 13.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:210, Val_loss:  6.04, time: 16.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:209, Val_loss:  4.65, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:208, Val_loss:  6.21, time: 16.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:207, Val_loss:  5.53, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:206, Val_loss:  5.44, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:205, Val_loss:  5.27, time: 10.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:204, Val_loss:  6.32, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:203, Val_loss:  5.14, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:202, Val_loss:  6.49, time: 12.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:201, Val_loss:  5.12, time: 23.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:200, Val_loss:  6.68, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:199, Val_loss:  5.41, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:198, Val_loss:  6.15, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:197, Val_loss:  4.97, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:196, Val_loss:  6.82, time: 16.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:195, Val_loss:  4.19, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:194, Val_loss:  6.57, time: 21.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:193, Val_loss:  3.16, time: 17.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:192, Val_loss:  6.32, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:191, Val_loss:  3.56, time: 18.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:190, Val_loss:  6.29, time: 18.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:189, Val_loss:  3.63, time: 17.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:188, Val_loss:  7.11, time: 16.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:187, Val_loss:  3.60, time: 13.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:186, Val_loss:  6.25, time: 14.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:185, Val_loss:  3.34, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:184, Val_loss:  6.22, time: 13.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:183, Val_loss:  4.17, time: 13.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:182, Val_loss:  6.00, time: 14.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:181, Val_loss:  4.40, time: 12.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:180, Val_loss:  6.95, time: 12.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:179, Val_loss:  5.23, time: 16.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:178, Val_loss:  5.78, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:177, Val_loss:  5.50, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:176, Val_loss:  6.19, time: 20.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:175, Val_loss:  5.96, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:174, Val_loss:  6.73, time: 11.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:173, Val_loss:  6.11, time: 15.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:172, Val_loss:  6.95, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:171, Val_loss:  6.30, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:170, Val_loss:  6.56, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:169, Val_loss:  5.38, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:168, Val_loss:  9.42, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:167, Val_loss:  3.89, time: 18.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:166, Val_loss:  6.71, time: 14.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:165, Val_loss:  4.43, time: 13.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:164, Val_loss:  6.03, time: 14.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:163, Val_loss:  5.03, time: 16.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:162, Val_loss:  5.57, time: 17.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:161, Val_loss:  5.34, time: 19.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:160, Val_loss:  4.97, time: 18.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:159, Val_loss:  5.87, time: 14.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:158, Val_loss:  4.08, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:157, Val_loss:  5.44, time: 12.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:156, Val_loss:  4.49, time: 17.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:155, Val_loss:  5.11, time: 13.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:154, Val_loss:  4.57, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:153, Val_loss:  5.15, time: 11.69, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:152, Val_loss:  4.46, time: 12.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:151, Val_loss:  5.62, time: 15.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:150, Val_loss:  4.16, time: 16.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:149, Val_loss:  5.50, time: 13.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:148, Val_loss:  4.40, time: 14.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:147, Val_loss:  5.82, time: 13.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:146, Val_loss:  5.36, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:145, Val_loss:  6.02, time: 14.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:144, Val_loss:  5.94, time: 19.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:143, Val_loss:  5.95, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:142, Val_loss:  6.09, time: 13.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:141, Val_loss:  6.35, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:140, Val_loss:  5.77, time: 11.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:139, Val_loss:  6.57, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:138, Val_loss:  5.66, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:137, Val_loss:  7.36, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:136, Val_loss:  5.24, time: 20.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:135, Val_loss:  7.32, time: 15.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:134, Val_loss:  5.20, time: 12.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:133, Val_loss:  7.76, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:132, Val_loss:  4.96, time: 13.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:131, Val_loss:  7.32, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:130, Val_loss:  5.15, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:129, Val_loss:  7.93, time: 19.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:128, Val_loss:  5.24, time: 15.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:127, Val_loss:  7.68, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:126, Val_loss:  5.53, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:125, Val_loss:  8.10, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:124, Val_loss:  5.51, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:123, Val_loss:  8.24, time: 16.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:122, Val_loss:  5.57, time: 17.82, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:121, Val_loss:  8.65, time: 13.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:120, Val_loss:  5.63, time: 14.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:119, Val_loss:  9.31, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:118, Val_loss:  5.33, time: 13.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:117, Val_loss:  9.55, time: 15.38, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:116, Val_loss:  5.31, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:115, Val_loss:  9.01, time: 16.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:114, Val_loss:  7.23, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:113, Val_loss:  3.84, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:112, Val_loss:  6.01, time: 13.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:111, Val_loss:  2.98, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:110, Val_loss:  2.68, time: 15.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:109, Val_loss:  3.00, time: 15.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:108, Val_loss:  2.66, time: 14.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:107, Val_loss:  3.04, time: 15.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:106, Val_loss:  2.61, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:105, Val_loss:  3.05, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:104, Val_loss:  2.60, time: 11.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:103, Val_loss:  2.86, time: 16.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:102, Val_loss:  2.59, time: 20.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:101, Val_loss:  2.96, time: 19.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:100, Val_loss:  2.59, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch: 99, Val_loss:  3.00, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch: 98, Val_loss:  2.59, time: 14.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch: 97, Val_loss:  3.04, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch: 96, Val_loss:  2.71, time: 12.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch: 95, Val_loss:  2.98, time: 17.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch: 94, Val_loss:  2.60, time: 20.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch: 93, Val_loss:  2.97, time: 20.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch: 92, Val_loss:  2.63, time: 18.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch: 91, Val_loss:  2.91, time: 13.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch: 90, Val_loss:  2.66, time: 14.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch: 89, Val_loss:  2.98, time: 11.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch: 88, Val_loss:  2.65, time: 13.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch: 87, Val_loss:  3.01, time: 17.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch: 86, Val_loss:  2.65, time: 14.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch: 85, Val_loss:  2.95, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch: 84, Val_loss:  2.63, time: 13.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch: 83, Val_loss:  2.95, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch: 82, Val_loss:  2.62, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch: 81, Val_loss:  2.88, time: 16.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch: 80, Val_loss:  2.61, time: 16.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch: 79, Val_loss:  2.86, time: 17.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch: 78, Val_loss:  2.64, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch: 77, Val_loss:  2.98, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch: 76, Val_loss:  2.57, time: 14.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch: 75, Val_loss:  2.98, time: 13.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch: 74, Val_loss:  2.68, time: 14.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch: 73, Val_loss:  2.89, time: 12.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch: 72, Val_loss:  2.64, time: 14.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch: 71, Val_loss:  3.00, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch: 70, Val_loss:  2.60, time: 17.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch: 69, Val_loss:  2.92, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch: 68, Val_loss:  2.59, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch: 67, Val_loss:  2.79, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch: 66, Val_loss:  2.68, time: 20.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch: 65, Val_loss:  2.87, time: 19.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch: 64, Val_loss:  2.67, time: 14.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch: 63, Val_loss:  2.91, time: 17.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch: 62, Val_loss:  2.62, time: 15.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch: 61, Val_loss:  2.88, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch: 60, Val_loss:  2.65, time: 20.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch: 59, Val_loss:  2.91, time: 17.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch: 58, Val_loss:  2.65, time: 15.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch: 57, Val_loss:  2.78, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch: 56, Val_loss:  2.61, time: 18.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch: 55, Val_loss:  2.82, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch: 54, Val_loss:  2.63, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch: 53, Val_loss:  2.87, time: 12.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch: 52, Val_loss:  2.66, time: 18.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch: 51, Val_loss:  2.86, time: 20.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch: 50, Val_loss:  2.66, time: 11.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch: 49, Val_loss:  2.83, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch: 48, Val_loss:  2.70, time: 14.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch: 47, Val_loss:  2.71, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch: 46, Val_loss:  2.67, time: 11.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch: 45, Val_loss:  2.93, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch: 44, Val_loss:  2.65, time: 14.17, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch: 43, Val_loss:  2.82, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch: 42, Val_loss:  2.67, time: 16.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch: 41, Val_loss:  2.85, time: 18.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch: 40, Val_loss:  2.64, time: 27.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch: 39, Val_loss:  2.83, time: 20.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch: 38, Val_loss:  2.70, time: 17.28, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch: 37, Val_loss:  2.80, time: 20.36, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch: 36, Val_loss:  2.79, time: 15.68, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch: 35, Val_loss:  2.73, time: 16.54, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch: 34, Val_loss:  2.81, time: 15.21, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch: 33, Val_loss:  2.71, time: 21.91, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch: 32, Val_loss:  2.71, time: 17.24, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch: 31, Val_loss:  2.76, time: 21.08, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch: 30, Val_loss:  2.74, time: 16.98, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch: 29, Val_loss:  2.81, time: 14.69, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch: 28, Val_loss:  2.72, time: 13.01, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch: 27, Val_loss:  2.84, time: 22.84, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch: 26, Val_loss:  2.77, time: 14.48, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch: 25, Val_loss:  2.78, time: 19.02, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch: 24, Val_loss:  2.75, time: 17.41, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch: 23, Val_loss:  2.72, time: 12.99, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch: 22, Val_loss:  2.85, time: 14.56, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch: 21, Val_loss:  2.81, time: 18.81, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch: 20, Val_loss:  2.83, time: 15.61, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch: 19, Val_loss:  2.85, time: 16.00, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch: 18, Val_loss:  2.83, time: 16.32, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch: 17, Val_loss:  2.83, time: 18.37, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch: 16, Val_loss:  2.90, time: 15.43, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch: 15, Val_loss:  2.86, time: 17.98, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch: 14, Val_loss:  2.97, time: 15.48, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch: 13, Val_loss:  2.88, time: 15.64, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch: 12, Val_loss:  2.94, time: 14.68, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch: 11, Val_loss:  2.94, time: 13.05, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch: 10, Val_loss:  2.93, time: 14.75, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch:  9, Val_loss:  2.99, time: 15.88, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch:  8, Val_loss:  3.03, time: 22.86, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch:  7, Val_loss:  3.07, time: 14.35, test_Acc:  39.04, test_bacc:  38.29, test_f1:  29.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch:  6, Val_loss:  3.08, time: 13.46, test_Acc:  39.25, test_bacc:  38.52, test_f1:  29.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch:  5, Val_loss:  3.18, time: 35.86, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  3.28, time: 30.30, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  3.40, time: 26.82, test_Acc:  38.38, test_bacc:  37.34, test_f1:  28.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  3.60, time: 32.31, test_Acc:  38.60, test_bacc:  37.44, test_f1:  28.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  3.85, time: 27.89, test_Acc:  37.94, test_bacc:  36.57, test_f1:  27.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch:  0, Val_loss:  4.18, time: 30.95, test_Acc:  37.72, test_bacc:  36.32, test_f1:  26.75</t>
         </is>
       </c>
     </row>

--- a/TrueAug_SAGE_WikipediaNetworkchameleon12-31-14:38:06_dir.xlsx
+++ b/TrueAug_SAGE_WikipediaNetworkchameleon12-31-14:38:06_dir.xlsx
@@ -4568,7 +4568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A436"/>
+  <dimension ref="A1:A470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4586,3043 +4586,3281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:434, Val_loss:  4.83, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:468, Val_loss:  5.34, time: 15.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:433, Val_loss:  3.99, time: 11.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:467, Val_loss:  4.12, time: 15.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:432, Val_loss:  4.98, time: 10.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:466, Val_loss:  4.99, time: 12.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:431, Val_loss:  4.24, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:465, Val_loss:  3.64, time: 17.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:430, Val_loss:  5.41, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:464, Val_loss:  4.61, time: 16.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:429, Val_loss:  4.51, time: 17.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:463, Val_loss:  3.89, time: 17.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:428, Val_loss:  4.18, time: 15.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:462, Val_loss:  5.07, time: 17.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:427, Val_loss:  4.93, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:461, Val_loss:  3.89, time: 14.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:426, Val_loss:  3.44, time: 16.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:460, Val_loss:  5.31, time: 17.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:425, Val_loss:  4.97, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:459, Val_loss:  3.73, time: 14.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:424, Val_loss:  3.53, time: 13.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:458, Val_loss:  5.19, time: 15.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:423, Val_loss:  4.90, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:457, Val_loss:  4.35, time: 16.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:422, Val_loss:  4.14, time: 15.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:456, Val_loss:  5.67, time: 19.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:421, Val_loss:  4.86, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:455, Val_loss:  4.58, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:420, Val_loss:  4.16, time: 18.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:454, Val_loss:  6.14, time: 13.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:419, Val_loss:  4.97, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:453, Val_loss:  4.50, time: 10.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:418, Val_loss:  4.23, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:452, Val_loss:  6.79, time: 15.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:417, Val_loss:  5.02, time: 15.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:451, Val_loss:  5.15, time: 13.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:416, Val_loss:  4.65, time: 15.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:450, Val_loss:  5.55, time: 14.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:415, Val_loss:  5.32, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:449, Val_loss:  6.02, time: 19.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:414, Val_loss:  4.74, time: 24.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:448, Val_loss:  4.53, time: 19.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:413, Val_loss:  5.14, time: 20.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:447, Val_loss:  6.60, time: 12.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:412, Val_loss:  5.28, time: 15.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:446, Val_loss:  4.17, time: 18.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:411, Val_loss:  5.90, time: 18.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:445, Val_loss:  6.29, time: 16.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:410, Val_loss:  5.43, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:444, Val_loss:  4.38, time: 17.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:409, Val_loss:  4.87, time: 20.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:443, Val_loss:  6.60, time: 14.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:408, Val_loss:  5.82, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:442, Val_loss:  4.70, time: 14.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:407, Val_loss:  3.95, time: 16.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:441, Val_loss:  5.49, time: 14.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:406, Val_loss:  5.23, time: 17.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:440, Val_loss:  4.89, time: 11.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:405, Val_loss:  4.47, time: 19.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:439, Val_loss:  3.99, time: 11.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:404, Val_loss:  5.53, time: 17.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:438, Val_loss:  5.16, time: 11.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:403, Val_loss:  4.57, time: 19.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:437, Val_loss:  4.05, time: 12.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:402, Val_loss:  5.49, time: 19.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:436, Val_loss:  4.52, time: 17.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:401, Val_loss:  5.10, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:435, Val_loss:  4.04, time: 16.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:400, Val_loss:  5.61, time: 18.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:434, Val_loss:  4.83, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:399, Val_loss:  5.80, time: 19.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:433, Val_loss:  3.99, time: 11.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:398, Val_loss:  4.52, time: 17.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:432, Val_loss:  4.98, time: 10.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:397, Val_loss:  5.73, time: 14.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:431, Val_loss:  4.24, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:396, Val_loss:  4.70, time: 20.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:430, Val_loss:  5.41, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:395, Val_loss:  6.13, time: 17.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:429, Val_loss:  4.51, time: 17.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:394, Val_loss:  5.23, time: 25.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:428, Val_loss:  4.18, time: 15.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:393, Val_loss:  6.29, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:427, Val_loss:  4.93, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:392, Val_loss:  5.49, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:426, Val_loss:  3.44, time: 16.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:391, Val_loss:  6.56, time: 11.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:425, Val_loss:  4.97, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:390, Val_loss:  4.96, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:424, Val_loss:  3.53, time: 13.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:389, Val_loss:  6.45, time: 11.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:423, Val_loss:  4.90, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:388, Val_loss:  5.86, time: 12.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:422, Val_loss:  4.14, time: 15.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:387, Val_loss:  4.85, time: 15.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:421, Val_loss:  4.86, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:386, Val_loss:  6.93, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:420, Val_loss:  4.16, time: 18.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:385, Val_loss:  4.71, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:419, Val_loss:  4.97, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:384, Val_loss:  6.13, time: 20.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:418, Val_loss:  4.23, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:383, Val_loss:  4.64, time: 15.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:417, Val_loss:  5.02, time: 15.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:382, Val_loss:  6.32, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:416, Val_loss:  4.65, time: 15.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:381, Val_loss:  4.49, time: 15.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:415, Val_loss:  5.32, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:380, Val_loss:  5.68, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:414, Val_loss:  4.74, time: 24.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:379, Val_loss:  4.77, time: 18.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:413, Val_loss:  5.14, time: 20.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:378, Val_loss:  5.51, time: 15.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:412, Val_loss:  5.28, time: 15.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:377, Val_loss:  5.48, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:411, Val_loss:  5.90, time: 18.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:376, Val_loss:  4.10, time: 17.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:410, Val_loss:  5.43, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:375, Val_loss:  5.67, time: 13.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:409, Val_loss:  4.87, time: 20.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:374, Val_loss:  3.63, time: 10.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:408, Val_loss:  5.82, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:373, Val_loss:  6.05, time: 12.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:407, Val_loss:  3.95, time: 16.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:372, Val_loss:  3.57, time: 11.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:406, Val_loss:  5.23, time: 17.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:371, Val_loss:  4.90, time: 12.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:405, Val_loss:  4.47, time: 19.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:370, Val_loss:  4.14, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:404, Val_loss:  5.53, time: 17.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:369, Val_loss:  5.01, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:403, Val_loss:  4.57, time: 19.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:368, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:402, Val_loss:  5.49, time: 19.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:367, Val_loss:  5.42, time: 16.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:401, Val_loss:  5.10, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:366, Val_loss:  4.28, time: 14.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:400, Val_loss:  5.61, time: 18.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:365, Val_loss:  5.10, time: 13.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:399, Val_loss:  5.80, time: 19.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:364, Val_loss:  4.66, time: 14.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:398, Val_loss:  4.52, time: 17.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:363, Val_loss:  5.51, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:397, Val_loss:  5.73, time: 14.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:362, Val_loss:  4.67, time: 13.09, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:396, Val_loss:  4.70, time: 20.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:361, Val_loss:  4.74, time: 13.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:395, Val_loss:  6.13, time: 17.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:360, Val_loss:  5.07, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:394, Val_loss:  5.23, time: 25.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:359, Val_loss:  4.57, time: 12.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:393, Val_loss:  6.29, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:358, Val_loss:  5.18, time: 14.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:392, Val_loss:  5.49, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:357, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:391, Val_loss:  6.56, time: 11.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:356, Val_loss:  5.23, time: 16.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:390, Val_loss:  4.96, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:355, Val_loss:  5.45, time: 15.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:389, Val_loss:  6.45, time: 11.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:354, Val_loss:  5.58, time: 17.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:388, Val_loss:  5.86, time: 12.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:353, Val_loss:  4.95, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:387, Val_loss:  4.85, time: 15.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:352, Val_loss:  5.14, time: 20.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:386, Val_loss:  6.93, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:351, Val_loss:  4.88, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:385, Val_loss:  4.71, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:350, Val_loss:  5.24, time: 20.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:384, Val_loss:  6.13, time: 20.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:349, Val_loss:  4.62, time: 22.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:383, Val_loss:  4.64, time: 15.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:348, Val_loss:  5.01, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:382, Val_loss:  6.32, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:347, Val_loss:  4.71, time: 18.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:381, Val_loss:  4.49, time: 15.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:346, Val_loss:  5.26, time: 18.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:380, Val_loss:  5.68, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:345, Val_loss:  4.90, time: 19.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:379, Val_loss:  4.77, time: 18.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:344, Val_loss:  5.97, time: 14.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:378, Val_loss:  5.51, time: 15.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:343, Val_loss:  5.01, time: 17.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:377, Val_loss:  5.48, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:342, Val_loss:  5.41, time: 18.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:376, Val_loss:  4.10, time: 17.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:341, Val_loss:  5.63, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:375, Val_loss:  5.67, time: 13.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:340, Val_loss:  4.31, time: 15.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:374, Val_loss:  3.63, time: 10.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:339, Val_loss:  5.70, time: 15.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:373, Val_loss:  6.05, time: 12.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:338, Val_loss:  3.98, time: 16.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:372, Val_loss:  3.57, time: 11.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:337, Val_loss:  4.88, time: 15.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:371, Val_loss:  4.90, time: 12.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:336, Val_loss:  4.15, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:370, Val_loss:  4.14, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:335, Val_loss:  4.79, time: 14.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:369, Val_loss:  5.01, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:334, Val_loss:  4.81, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:368, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:333, Val_loss:  4.73, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:367, Val_loss:  5.42, time: 16.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:332, Val_loss:  4.84, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:366, Val_loss:  4.28, time: 14.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:331, Val_loss:  5.24, time: 14.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:365, Val_loss:  5.10, time: 13.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:330, Val_loss:  5.04, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:364, Val_loss:  4.66, time: 14.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:329, Val_loss:  5.62, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:363, Val_loss:  5.51, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:328, Val_loss:  4.47, time: 16.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:362, Val_loss:  4.67, time: 13.09, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:327, Val_loss:  6.26, time: 12.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:361, Val_loss:  4.74, time: 13.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:326, Val_loss:  3.39, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:360, Val_loss:  5.07, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:325, Val_loss:  6.66, time: 12.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:359, Val_loss:  4.57, time: 12.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:324, Val_loss:  3.74, time: 12.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:358, Val_loss:  5.18, time: 14.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:323, Val_loss:  5.08, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:357, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:322, Val_loss:  4.55, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:356, Val_loss:  5.23, time: 16.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:321, Val_loss:  5.07, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:355, Val_loss:  5.45, time: 15.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:320, Val_loss:  4.82, time: 13.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:354, Val_loss:  5.58, time: 17.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:319, Val_loss:  5.15, time: 15.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:353, Val_loss:  4.95, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:318, Val_loss:  4.95, time: 18.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:352, Val_loss:  5.14, time: 20.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:317, Val_loss:  5.60, time: 18.57, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:351, Val_loss:  4.88, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:316, Val_loss:  4.42, time: 23.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:350, Val_loss:  5.24, time: 20.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:315, Val_loss:  5.29, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:349, Val_loss:  4.62, time: 22.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:314, Val_loss:  5.22, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:348, Val_loss:  5.01, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:313, Val_loss:  5.33, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:347, Val_loss:  4.71, time: 18.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:312, Val_loss:  4.92, time: 15.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:346, Val_loss:  5.26, time: 18.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:311, Val_loss:  5.17, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:345, Val_loss:  4.90, time: 19.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:310, Val_loss:  6.09, time: 13.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:344, Val_loss:  5.97, time: 14.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:309, Val_loss:  5.29, time: 14.04, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:343, Val_loss:  5.01, time: 17.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:308, Val_loss:  6.29, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:342, Val_loss:  5.41, time: 18.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:307, Val_loss:  4.11, time: 14.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:341, Val_loss:  5.63, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:306, Val_loss:  6.29, time: 13.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:340, Val_loss:  4.31, time: 15.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:305, Val_loss:  3.31, time: 15.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:339, Val_loss:  5.70, time: 15.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:304, Val_loss:  4.69, time: 14.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:338, Val_loss:  3.98, time: 16.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:303, Val_loss:  3.63, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:337, Val_loss:  4.88, time: 15.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:302, Val_loss:  4.92, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:336, Val_loss:  4.15, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:301, Val_loss:  3.74, time: 13.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:335, Val_loss:  4.79, time: 14.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:300, Val_loss:  5.03, time: 12.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:334, Val_loss:  4.81, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:299, Val_loss:  3.53, time: 14.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:333, Val_loss:  4.73, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:298, Val_loss:  5.65, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:332, Val_loss:  4.84, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:297, Val_loss:  3.70, time: 14.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:331, Val_loss:  5.24, time: 14.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:296, Val_loss:  4.86, time: 15.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:330, Val_loss:  5.04, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:295, Val_loss:  4.30, time: 17.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:329, Val_loss:  5.62, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:294, Val_loss:  4.86, time: 16.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:328, Val_loss:  4.47, time: 16.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:293, Val_loss:  4.14, time: 17.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:327, Val_loss:  6.26, time: 12.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:292, Val_loss:  5.41, time: 13.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:326, Val_loss:  3.39, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:291, Val_loss:  3.85, time: 16.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:325, Val_loss:  6.66, time: 12.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:290, Val_loss:  5.34, time: 13.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:324, Val_loss:  3.74, time: 12.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epoch:289, Val_loss:  4.36, time: 14.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:323, Val_loss:  5.08, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Epoch:288, Val_loss:  5.05, time: 11.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:322, Val_loss:  4.55, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Epoch:287, Val_loss:  4.77, time: 15.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:321, Val_loss:  5.07, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Epoch:286, Val_loss:  5.34, time: 18.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:320, Val_loss:  4.82, time: 13.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Epoch:285, Val_loss:  4.65, time: 15.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:319, Val_loss:  5.15, time: 15.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Epoch:284, Val_loss:  4.45, time: 18.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:318, Val_loss:  4.95, time: 18.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Epoch:283, Val_loss:  5.37, time: 18.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:317, Val_loss:  5.60, time: 18.57, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Epoch:282, Val_loss:  3.57, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:316, Val_loss:  4.42, time: 23.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Epoch:281, Val_loss:  5.48, time: 13.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:315, Val_loss:  5.29, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Epoch:280, Val_loss:  4.01, time: 16.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:314, Val_loss:  5.22, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Epoch:279, Val_loss:  5.63, time: 12.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:313, Val_loss:  5.33, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Epoch:278, Val_loss:  3.76, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:312, Val_loss:  4.92, time: 15.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epoch:277, Val_loss:  5.84, time: 16.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:311, Val_loss:  5.17, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Epoch:276, Val_loss:  3.87, time: 17.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:310, Val_loss:  6.09, time: 13.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Epoch:275, Val_loss:  6.21, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:309, Val_loss:  5.29, time: 14.04, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Epoch:274, Val_loss:  3.89, time: 16.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:308, Val_loss:  6.29, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Epoch:273, Val_loss:  6.15, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:307, Val_loss:  4.11, time: 14.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Epoch:272, Val_loss:  3.98, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:306, Val_loss:  6.29, time: 13.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Epoch:271, Val_loss:  5.38, time: 21.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:305, Val_loss:  3.31, time: 15.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Epoch:270, Val_loss:  4.30, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:304, Val_loss:  4.69, time: 14.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Epoch:269, Val_loss:  5.62, time: 13.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:303, Val_loss:  3.63, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Epoch:268, Val_loss:  4.65, time: 11.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:302, Val_loss:  4.92, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Epoch:267, Val_loss:  5.48, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:301, Val_loss:  3.74, time: 13.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Epoch:266, Val_loss:  4.93, time: 15.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:300, Val_loss:  5.03, time: 12.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Epoch:265, Val_loss:  5.89, time: 14.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:299, Val_loss:  3.53, time: 14.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Epoch:264, Val_loss:  5.15, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:298, Val_loss:  5.65, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Epoch:263, Val_loss:  6.47, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:297, Val_loss:  3.70, time: 14.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Epoch:262, Val_loss:  5.20, time: 13.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:296, Val_loss:  4.86, time: 15.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Epoch:261, Val_loss:  6.70, time: 15.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:295, Val_loss:  4.30, time: 17.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Epoch:260, Val_loss:  4.30, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:294, Val_loss:  4.86, time: 16.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Epoch:259, Val_loss:  6.39, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:293, Val_loss:  4.14, time: 17.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Epoch:258, Val_loss:  4.72, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:292, Val_loss:  5.41, time: 13.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Epoch:257, Val_loss:  6.64, time: 20.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:291, Val_loss:  3.85, time: 16.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Epoch:256, Val_loss:  4.59, time: 15.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:290, Val_loss:  5.34, time: 13.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Epoch:255, Val_loss:  7.32, time: 16.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:289, Val_loss:  4.36, time: 14.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Epoch:254, Val_loss:  4.79, time: 16.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:288, Val_loss:  5.05, time: 11.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Epoch:253, Val_loss:  7.12, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:287, Val_loss:  4.77, time: 15.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Epoch:252, Val_loss:  6.40, time: 17.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:286, Val_loss:  5.34, time: 18.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Epoch:251, Val_loss:  4.57, time: 18.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:285, Val_loss:  4.65, time: 15.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Epoch:250, Val_loss:  6.20, time: 15.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:284, Val_loss:  4.45, time: 18.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Epoch:249, Val_loss:  3.66, time: 12.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:283, Val_loss:  5.37, time: 18.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Epoch:248, Val_loss:  6.15, time: 17.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:282, Val_loss:  3.57, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Epoch:247, Val_loss:  4.09, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:281, Val_loss:  5.48, time: 13.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Epoch:246, Val_loss:  6.44, time: 17.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:280, Val_loss:  4.01, time: 16.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Epoch:245, Val_loss:  3.88, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:279, Val_loss:  5.63, time: 12.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Epoch:244, Val_loss:  6.54, time: 13.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:278, Val_loss:  3.76, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Epoch:243, Val_loss:  3.79, time: 17.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:277, Val_loss:  5.84, time: 16.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Epoch:242, Val_loss:  5.50, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:276, Val_loss:  3.87, time: 17.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Epoch:241, Val_loss:  5.06, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:275, Val_loss:  6.21, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Epoch:240, Val_loss:  5.35, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:274, Val_loss:  3.89, time: 16.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Epoch:239, Val_loss:  5.90, time: 11.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:273, Val_loss:  6.15, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Epoch:238, Val_loss:  4.97, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:272, Val_loss:  3.98, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Epoch:237, Val_loss:  5.90, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:271, Val_loss:  5.38, time: 21.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Epoch:236, Val_loss:  3.75, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:270, Val_loss:  4.30, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Epoch:235, Val_loss:  6.91, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:269, Val_loss:  5.62, time: 13.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Epoch:234, Val_loss:  3.35, time: 15.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:268, Val_loss:  4.65, time: 11.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Epoch:233, Val_loss:  5.52, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:267, Val_loss:  5.48, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Epoch:232, Val_loss:  4.01, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:266, Val_loss:  4.93, time: 15.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Epoch:231, Val_loss:  5.97, time: 12.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:265, Val_loss:  5.89, time: 14.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Epoch:230, Val_loss:  3.98, time: 18.03, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:264, Val_loss:  5.15, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Epoch:229, Val_loss:  5.17, time: 16.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:263, Val_loss:  6.47, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Epoch:228, Val_loss:  4.63, time: 19.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:262, Val_loss:  5.20, time: 13.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Epoch:227, Val_loss:  5.32, time: 16.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:261, Val_loss:  6.70, time: 15.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Epoch:226, Val_loss:  4.95, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:260, Val_loss:  4.30, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Epoch:225, Val_loss:  4.86, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:259, Val_loss:  6.39, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Epoch:224, Val_loss:  5.00, time: 14.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:258, Val_loss:  4.72, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Epoch:223, Val_loss:  5.17, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:257, Val_loss:  6.64, time: 20.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Epoch:222, Val_loss:  4.97, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:256, Val_loss:  4.59, time: 15.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Epoch:221, Val_loss:  4.42, time: 14.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:255, Val_loss:  7.32, time: 16.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Epoch:220, Val_loss:  5.39, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:254, Val_loss:  4.79, time: 16.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Epoch:219, Val_loss:  3.93, time: 11.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:253, Val_loss:  7.12, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Epoch:218, Val_loss:  5.42, time: 13.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:252, Val_loss:  6.40, time: 17.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Epoch:217, Val_loss:  4.08, time: 20.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:251, Val_loss:  4.57, time: 18.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Epoch:216, Val_loss:  5.61, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:250, Val_loss:  6.20, time: 15.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Epoch:215, Val_loss:  4.45, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:249, Val_loss:  3.66, time: 12.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Epoch:214, Val_loss:  5.97, time: 15.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:248, Val_loss:  6.15, time: 17.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Epoch:213, Val_loss:  4.62, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:247, Val_loss:  4.09, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Epoch:212, Val_loss:  5.81, time: 13.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:246, Val_loss:  6.44, time: 17.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Epoch:211, Val_loss:  4.63, time: 13.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:245, Val_loss:  3.88, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Epoch:210, Val_loss:  6.04, time: 16.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:244, Val_loss:  6.54, time: 13.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Epoch:209, Val_loss:  4.65, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:243, Val_loss:  3.79, time: 17.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Epoch:208, Val_loss:  6.21, time: 16.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:242, Val_loss:  5.50, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Epoch:207, Val_loss:  5.53, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:241, Val_loss:  5.06, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Epoch:206, Val_loss:  5.44, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:240, Val_loss:  5.35, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Epoch:205, Val_loss:  5.27, time: 10.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:239, Val_loss:  5.90, time: 11.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Epoch:204, Val_loss:  6.32, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:238, Val_loss:  4.97, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Epoch:203, Val_loss:  5.14, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:237, Val_loss:  5.90, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Epoch:202, Val_loss:  6.49, time: 12.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:236, Val_loss:  3.75, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Epoch:201, Val_loss:  5.12, time: 23.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:235, Val_loss:  6.91, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Epoch:200, Val_loss:  6.68, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:234, Val_loss:  3.35, time: 15.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Epoch:199, Val_loss:  5.41, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:233, Val_loss:  5.52, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Epoch:198, Val_loss:  6.15, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:232, Val_loss:  4.01, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Epoch:197, Val_loss:  4.97, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:231, Val_loss:  5.97, time: 12.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Epoch:196, Val_loss:  6.82, time: 16.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:230, Val_loss:  3.98, time: 18.03, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Epoch:195, Val_loss:  4.19, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:229, Val_loss:  5.17, time: 16.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Epoch:194, Val_loss:  6.57, time: 21.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:228, Val_loss:  4.63, time: 19.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Epoch:193, Val_loss:  3.16, time: 17.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:227, Val_loss:  5.32, time: 16.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Epoch:192, Val_loss:  6.32, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:226, Val_loss:  4.95, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Epoch:191, Val_loss:  3.56, time: 18.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:225, Val_loss:  4.86, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Epoch:190, Val_loss:  6.29, time: 18.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:224, Val_loss:  5.00, time: 14.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Epoch:189, Val_loss:  3.63, time: 17.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:223, Val_loss:  5.17, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Epoch:188, Val_loss:  7.11, time: 16.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:222, Val_loss:  4.97, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Epoch:187, Val_loss:  3.60, time: 13.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:221, Val_loss:  4.42, time: 14.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Epoch:186, Val_loss:  6.25, time: 14.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:220, Val_loss:  5.39, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Epoch:185, Val_loss:  3.34, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:219, Val_loss:  3.93, time: 11.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Epoch:184, Val_loss:  6.22, time: 13.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:218, Val_loss:  5.42, time: 13.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Epoch:183, Val_loss:  4.17, time: 13.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:217, Val_loss:  4.08, time: 20.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Epoch:182, Val_loss:  6.00, time: 14.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:216, Val_loss:  5.61, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Epoch:181, Val_loss:  4.40, time: 12.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:215, Val_loss:  4.45, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Epoch:180, Val_loss:  6.95, time: 12.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:214, Val_loss:  5.97, time: 15.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Epoch:179, Val_loss:  5.23, time: 16.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:213, Val_loss:  4.62, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Epoch:178, Val_loss:  5.78, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:212, Val_loss:  5.81, time: 13.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Epoch:177, Val_loss:  5.50, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:211, Val_loss:  4.63, time: 13.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Epoch:176, Val_loss:  6.19, time: 20.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:210, Val_loss:  6.04, time: 16.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Epoch:175, Val_loss:  5.96, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:209, Val_loss:  4.65, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Epoch:174, Val_loss:  6.73, time: 11.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:208, Val_loss:  6.21, time: 16.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Epoch:173, Val_loss:  6.11, time: 15.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:207, Val_loss:  5.53, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Epoch:172, Val_loss:  6.95, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:206, Val_loss:  5.44, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Epoch:171, Val_loss:  6.30, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:205, Val_loss:  5.27, time: 10.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Epoch:170, Val_loss:  6.56, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:204, Val_loss:  6.32, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Epoch:169, Val_loss:  5.38, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:203, Val_loss:  5.14, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Epoch:168, Val_loss:  9.42, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:202, Val_loss:  6.49, time: 12.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Epoch:167, Val_loss:  3.89, time: 18.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:201, Val_loss:  5.12, time: 23.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Epoch:166, Val_loss:  6.71, time: 14.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:200, Val_loss:  6.68, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Epoch:165, Val_loss:  4.43, time: 13.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:199, Val_loss:  5.41, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Epoch:164, Val_loss:  6.03, time: 14.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:198, Val_loss:  6.15, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Epoch:163, Val_loss:  5.03, time: 16.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:197, Val_loss:  4.97, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Epoch:162, Val_loss:  5.57, time: 17.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:196, Val_loss:  6.82, time: 16.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Epoch:161, Val_loss:  5.34, time: 19.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:195, Val_loss:  4.19, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Epoch:160, Val_loss:  4.97, time: 18.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:194, Val_loss:  6.57, time: 21.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Epoch:159, Val_loss:  5.87, time: 14.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:193, Val_loss:  3.16, time: 17.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Epoch:158, Val_loss:  4.08, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:192, Val_loss:  6.32, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Epoch:157, Val_loss:  5.44, time: 12.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:191, Val_loss:  3.56, time: 18.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Epoch:156, Val_loss:  4.49, time: 17.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:190, Val_loss:  6.29, time: 18.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Epoch:155, Val_loss:  5.11, time: 13.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:189, Val_loss:  3.63, time: 17.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Epoch:154, Val_loss:  4.57, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:188, Val_loss:  7.11, time: 16.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Epoch:153, Val_loss:  5.15, time: 11.69, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:187, Val_loss:  3.60, time: 13.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Epoch:152, Val_loss:  4.46, time: 12.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:186, Val_loss:  6.25, time: 14.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Epoch:151, Val_loss:  5.62, time: 15.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:185, Val_loss:  3.34, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Epoch:150, Val_loss:  4.16, time: 16.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:184, Val_loss:  6.22, time: 13.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Epoch:149, Val_loss:  5.50, time: 13.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:183, Val_loss:  4.17, time: 13.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Epoch:148, Val_loss:  4.40, time: 14.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:182, Val_loss:  6.00, time: 14.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Epoch:147, Val_loss:  5.82, time: 13.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:181, Val_loss:  4.40, time: 12.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Epoch:146, Val_loss:  5.36, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:180, Val_loss:  6.95, time: 12.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Epoch:145, Val_loss:  6.02, time: 14.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:179, Val_loss:  5.23, time: 16.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Epoch:144, Val_loss:  5.94, time: 19.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:178, Val_loss:  5.78, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Epoch:143, Val_loss:  5.95, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:177, Val_loss:  5.50, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Epoch:142, Val_loss:  6.09, time: 13.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:176, Val_loss:  6.19, time: 20.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Epoch:141, Val_loss:  6.35, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:175, Val_loss:  5.96, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Epoch:140, Val_loss:  5.77, time: 11.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:174, Val_loss:  6.73, time: 11.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Epoch:139, Val_loss:  6.57, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:173, Val_loss:  6.11, time: 15.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Epoch:138, Val_loss:  5.66, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:172, Val_loss:  6.95, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Epoch:137, Val_loss:  7.36, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:171, Val_loss:  6.30, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Epoch:136, Val_loss:  5.24, time: 20.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:170, Val_loss:  6.56, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Epoch:135, Val_loss:  7.32, time: 15.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:169, Val_loss:  5.38, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Epoch:134, Val_loss:  5.20, time: 12.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:168, Val_loss:  9.42, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Epoch:133, Val_loss:  7.76, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:167, Val_loss:  3.89, time: 18.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Epoch:132, Val_loss:  4.96, time: 13.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:166, Val_loss:  6.71, time: 14.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Epoch:131, Val_loss:  7.32, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:165, Val_loss:  4.43, time: 13.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Epoch:130, Val_loss:  5.15, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:164, Val_loss:  6.03, time: 14.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Epoch:129, Val_loss:  7.93, time: 19.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:163, Val_loss:  5.03, time: 16.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Epoch:128, Val_loss:  5.24, time: 15.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:162, Val_loss:  5.57, time: 17.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Epoch:127, Val_loss:  7.68, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:161, Val_loss:  5.34, time: 19.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Epoch:126, Val_loss:  5.53, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:160, Val_loss:  4.97, time: 18.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Epoch:125, Val_loss:  8.10, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:159, Val_loss:  5.87, time: 14.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Epoch:124, Val_loss:  5.51, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:158, Val_loss:  4.08, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Epoch:123, Val_loss:  8.24, time: 16.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:157, Val_loss:  5.44, time: 12.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Epoch:122, Val_loss:  5.57, time: 17.82, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:156, Val_loss:  4.49, time: 17.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Epoch:121, Val_loss:  8.65, time: 13.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:155, Val_loss:  5.11, time: 13.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Epoch:120, Val_loss:  5.63, time: 14.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:154, Val_loss:  4.57, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Epoch:119, Val_loss:  9.31, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:153, Val_loss:  5.15, time: 11.69, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Epoch:118, Val_loss:  5.33, time: 13.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:152, Val_loss:  4.46, time: 12.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Epoch:117, Val_loss:  9.55, time: 15.38, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:151, Val_loss:  5.62, time: 15.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Epoch:116, Val_loss:  5.31, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:150, Val_loss:  4.16, time: 16.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Epoch:115, Val_loss:  9.01, time: 16.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:149, Val_loss:  5.50, time: 13.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Epoch:114, Val_loss:  7.23, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:148, Val_loss:  4.40, time: 14.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Epoch:113, Val_loss:  3.84, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:147, Val_loss:  5.82, time: 13.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Epoch:112, Val_loss:  6.01, time: 13.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:146, Val_loss:  5.36, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Epoch:111, Val_loss:  2.98, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:145, Val_loss:  6.02, time: 14.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Epoch:110, Val_loss:  2.68, time: 15.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:144, Val_loss:  5.94, time: 19.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Epoch:109, Val_loss:  3.00, time: 15.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:143, Val_loss:  5.95, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Epoch:108, Val_loss:  2.66, time: 14.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:142, Val_loss:  6.09, time: 13.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Epoch:107, Val_loss:  3.04, time: 15.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:141, Val_loss:  6.35, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Epoch:106, Val_loss:  2.61, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:140, Val_loss:  5.77, time: 11.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Epoch:105, Val_loss:  3.05, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:139, Val_loss:  6.57, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Epoch:104, Val_loss:  2.60, time: 11.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:138, Val_loss:  5.66, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Epoch:103, Val_loss:  2.86, time: 16.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:137, Val_loss:  7.36, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Epoch:102, Val_loss:  2.59, time: 20.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:136, Val_loss:  5.24, time: 20.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Epoch:101, Val_loss:  2.96, time: 19.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:135, Val_loss:  7.32, time: 15.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Epoch:100, Val_loss:  2.59, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:134, Val_loss:  5.20, time: 12.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Epoch: 99, Val_loss:  3.00, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:133, Val_loss:  7.76, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Epoch: 98, Val_loss:  2.59, time: 14.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:132, Val_loss:  4.96, time: 13.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Epoch: 97, Val_loss:  3.04, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:131, Val_loss:  7.32, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Epoch: 96, Val_loss:  2.71, time: 12.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:130, Val_loss:  5.15, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Epoch: 95, Val_loss:  2.98, time: 17.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:129, Val_loss:  7.93, time: 19.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Epoch: 94, Val_loss:  2.60, time: 20.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:128, Val_loss:  5.24, time: 15.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Epoch: 93, Val_loss:  2.97, time: 20.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:127, Val_loss:  7.68, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Epoch: 92, Val_loss:  2.63, time: 18.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:126, Val_loss:  5.53, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Epoch: 91, Val_loss:  2.91, time: 13.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:125, Val_loss:  8.10, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Epoch: 90, Val_loss:  2.66, time: 14.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:124, Val_loss:  5.51, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Epoch: 89, Val_loss:  2.98, time: 11.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:123, Val_loss:  8.24, time: 16.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Epoch: 88, Val_loss:  2.65, time: 13.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:122, Val_loss:  5.57, time: 17.82, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Epoch: 87, Val_loss:  3.01, time: 17.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:121, Val_loss:  8.65, time: 13.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Epoch: 86, Val_loss:  2.65, time: 14.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:120, Val_loss:  5.63, time: 14.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Epoch: 85, Val_loss:  2.95, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:119, Val_loss:  9.31, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Epoch: 84, Val_loss:  2.63, time: 13.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:118, Val_loss:  5.33, time: 13.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Epoch: 83, Val_loss:  2.95, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:117, Val_loss:  9.55, time: 15.38, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Epoch: 82, Val_loss:  2.62, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:116, Val_loss:  5.31, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Epoch: 81, Val_loss:  2.88, time: 16.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:115, Val_loss:  9.01, time: 16.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Epoch: 80, Val_loss:  2.61, time: 16.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:114, Val_loss:  7.23, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Epoch: 79, Val_loss:  2.86, time: 17.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:113, Val_loss:  3.84, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Epoch: 78, Val_loss:  2.64, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:112, Val_loss:  6.01, time: 13.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Epoch: 77, Val_loss:  2.98, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:111, Val_loss:  2.98, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Epoch: 76, Val_loss:  2.57, time: 14.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:110, Val_loss:  2.68, time: 15.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Epoch: 75, Val_loss:  2.98, time: 13.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:109, Val_loss:  3.00, time: 15.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Epoch: 74, Val_loss:  2.68, time: 14.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:108, Val_loss:  2.66, time: 14.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Epoch: 73, Val_loss:  2.89, time: 12.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:107, Val_loss:  3.04, time: 15.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Epoch: 72, Val_loss:  2.64, time: 14.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:106, Val_loss:  2.61, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Epoch: 71, Val_loss:  3.00, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:105, Val_loss:  3.05, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Epoch: 70, Val_loss:  2.60, time: 17.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:104, Val_loss:  2.60, time: 11.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Epoch: 69, Val_loss:  2.92, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:103, Val_loss:  2.86, time: 16.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Epoch: 68, Val_loss:  2.59, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:102, Val_loss:  2.59, time: 20.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Epoch: 67, Val_loss:  2.79, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:101, Val_loss:  2.96, time: 19.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Epoch: 66, Val_loss:  2.68, time: 20.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:100, Val_loss:  2.59, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Epoch: 65, Val_loss:  2.87, time: 19.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 99, Val_loss:  3.00, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Epoch: 64, Val_loss:  2.67, time: 14.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 98, Val_loss:  2.59, time: 14.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Epoch: 63, Val_loss:  2.91, time: 17.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 97, Val_loss:  3.04, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Epoch: 62, Val_loss:  2.62, time: 15.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 96, Val_loss:  2.71, time: 12.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Epoch: 61, Val_loss:  2.88, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 95, Val_loss:  2.98, time: 17.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Epoch: 60, Val_loss:  2.65, time: 20.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 94, Val_loss:  2.60, time: 20.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Epoch: 59, Val_loss:  2.91, time: 17.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 93, Val_loss:  2.97, time: 20.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Epoch: 58, Val_loss:  2.65, time: 15.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 92, Val_loss:  2.63, time: 18.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Epoch: 57, Val_loss:  2.78, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 91, Val_loss:  2.91, time: 13.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Epoch: 56, Val_loss:  2.61, time: 18.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 90, Val_loss:  2.66, time: 14.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Epoch: 55, Val_loss:  2.82, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 89, Val_loss:  2.98, time: 11.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Epoch: 54, Val_loss:  2.63, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 88, Val_loss:  2.65, time: 13.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Epoch: 53, Val_loss:  2.87, time: 12.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 87, Val_loss:  3.01, time: 17.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Epoch: 52, Val_loss:  2.66, time: 18.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 86, Val_loss:  2.65, time: 14.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Epoch: 51, Val_loss:  2.86, time: 20.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 85, Val_loss:  2.95, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Epoch: 50, Val_loss:  2.66, time: 11.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 84, Val_loss:  2.63, time: 13.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Epoch: 49, Val_loss:  2.83, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 83, Val_loss:  2.95, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Epoch: 48, Val_loss:  2.70, time: 14.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 82, Val_loss:  2.62, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Epoch: 47, Val_loss:  2.71, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 81, Val_loss:  2.88, time: 16.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Epoch: 46, Val_loss:  2.67, time: 11.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 80, Val_loss:  2.61, time: 16.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Epoch: 45, Val_loss:  2.93, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 79, Val_loss:  2.86, time: 17.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Epoch: 44, Val_loss:  2.65, time: 14.17, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 78, Val_loss:  2.64, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Epoch: 43, Val_loss:  2.82, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 77, Val_loss:  2.98, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Epoch: 42, Val_loss:  2.67, time: 16.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 76, Val_loss:  2.57, time: 14.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Epoch: 41, Val_loss:  2.85, time: 18.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 75, Val_loss:  2.98, time: 13.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Epoch: 40, Val_loss:  2.64, time: 27.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 74, Val_loss:  2.68, time: 14.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Epoch: 39, Val_loss:  2.83, time: 20.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 73, Val_loss:  2.89, time: 12.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Epoch: 38, Val_loss:  2.70, time: 17.28, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 72, Val_loss:  2.64, time: 14.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Epoch: 37, Val_loss:  2.80, time: 20.36, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 71, Val_loss:  3.00, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Epoch: 36, Val_loss:  2.79, time: 15.68, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 70, Val_loss:  2.60, time: 17.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Epoch: 35, Val_loss:  2.73, time: 16.54, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 69, Val_loss:  2.92, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Epoch: 34, Val_loss:  2.81, time: 15.21, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 68, Val_loss:  2.59, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Epoch: 33, Val_loss:  2.71, time: 21.91, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 67, Val_loss:  2.79, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Epoch: 32, Val_loss:  2.71, time: 17.24, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 66, Val_loss:  2.68, time: 20.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Epoch: 31, Val_loss:  2.76, time: 21.08, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 65, Val_loss:  2.87, time: 19.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Epoch: 30, Val_loss:  2.74, time: 16.98, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 64, Val_loss:  2.67, time: 14.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Epoch: 29, Val_loss:  2.81, time: 14.69, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 63, Val_loss:  2.91, time: 17.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Epoch: 28, Val_loss:  2.72, time: 13.01, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 62, Val_loss:  2.62, time: 15.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Epoch: 27, Val_loss:  2.84, time: 22.84, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 61, Val_loss:  2.88, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Epoch: 26, Val_loss:  2.77, time: 14.48, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 60, Val_loss:  2.65, time: 20.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Epoch: 25, Val_loss:  2.78, time: 19.02, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 59, Val_loss:  2.91, time: 17.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Epoch: 24, Val_loss:  2.75, time: 17.41, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 58, Val_loss:  2.65, time: 15.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Epoch: 23, Val_loss:  2.72, time: 12.99, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 57, Val_loss:  2.78, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Epoch: 22, Val_loss:  2.85, time: 14.56, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+          <t>Epoch: 56, Val_loss:  2.61, time: 18.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Epoch: 21, Val_loss:  2.81, time: 18.81, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 55, Val_loss:  2.82, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Epoch: 20, Val_loss:  2.83, time: 15.61, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 54, Val_loss:  2.63, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Epoch: 19, Val_loss:  2.85, time: 16.00, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 53, Val_loss:  2.87, time: 12.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Epoch: 18, Val_loss:  2.83, time: 16.32, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 52, Val_loss:  2.66, time: 18.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Epoch: 17, Val_loss:  2.83, time: 18.37, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 51, Val_loss:  2.86, time: 20.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Epoch: 16, Val_loss:  2.90, time: 15.43, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 50, Val_loss:  2.66, time: 11.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Epoch: 15, Val_loss:  2.86, time: 17.98, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 49, Val_loss:  2.83, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Epoch: 14, Val_loss:  2.97, time: 15.48, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 48, Val_loss:  2.70, time: 14.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Epoch: 13, Val_loss:  2.88, time: 15.64, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 47, Val_loss:  2.71, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Epoch: 12, Val_loss:  2.94, time: 14.68, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 46, Val_loss:  2.67, time: 11.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Epoch: 11, Val_loss:  2.94, time: 13.05, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 45, Val_loss:  2.93, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Epoch: 10, Val_loss:  2.93, time: 14.75, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 44, Val_loss:  2.65, time: 14.17, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Epoch:  9, Val_loss:  2.99, time: 15.88, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 43, Val_loss:  2.82, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Epoch:  8, Val_loss:  3.03, time: 22.86, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+          <t>Epoch: 42, Val_loss:  2.67, time: 16.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Epoch:  7, Val_loss:  3.07, time: 14.35, test_Acc:  39.04, test_bacc:  38.29, test_f1:  29.02</t>
+          <t>Epoch: 41, Val_loss:  2.85, time: 18.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Epoch:  6, Val_loss:  3.08, time: 13.46, test_Acc:  39.25, test_bacc:  38.52, test_f1:  29.17</t>
+          <t>Epoch: 40, Val_loss:  2.64, time: 27.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  3.18, time: 35.86, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
+          <t>Epoch: 39, Val_loss:  2.83, time: 20.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  3.28, time: 30.30, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
+          <t>Epoch: 38, Val_loss:  2.70, time: 17.28, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  3.40, time: 26.82, test_Acc:  38.38, test_bacc:  37.34, test_f1:  28.51</t>
+          <t>Epoch: 37, Val_loss:  2.80, time: 20.36, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  3.60, time: 32.31, test_Acc:  38.60, test_bacc:  37.44, test_f1:  28.95</t>
+          <t>Epoch: 36, Val_loss:  2.79, time: 15.68, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  3.85, time: 27.89, test_Acc:  37.94, test_bacc:  36.57, test_f1:  27.65</t>
+          <t>Epoch: 35, Val_loss:  2.73, time: 16.54, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch: 34, Val_loss:  2.81, time: 15.21, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch: 33, Val_loss:  2.71, time: 21.91, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch: 32, Val_loss:  2.71, time: 17.24, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch: 31, Val_loss:  2.76, time: 21.08, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch: 30, Val_loss:  2.74, time: 16.98, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch: 29, Val_loss:  2.81, time: 14.69, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch: 28, Val_loss:  2.72, time: 13.01, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch: 27, Val_loss:  2.84, time: 22.84, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch: 26, Val_loss:  2.77, time: 14.48, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch: 25, Val_loss:  2.78, time: 19.02, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch: 24, Val_loss:  2.75, time: 17.41, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch: 23, Val_loss:  2.72, time: 12.99, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch: 22, Val_loss:  2.85, time: 14.56, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch: 21, Val_loss:  2.81, time: 18.81, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch: 20, Val_loss:  2.83, time: 15.61, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch: 19, Val_loss:  2.85, time: 16.00, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch: 18, Val_loss:  2.83, time: 16.32, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch: 17, Val_loss:  2.83, time: 18.37, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch: 16, Val_loss:  2.90, time: 15.43, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch: 15, Val_loss:  2.86, time: 17.98, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch: 14, Val_loss:  2.97, time: 15.48, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch: 13, Val_loss:  2.88, time: 15.64, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch: 12, Val_loss:  2.94, time: 14.68, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch: 11, Val_loss:  2.94, time: 13.05, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch: 10, Val_loss:  2.93, time: 14.75, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch:  9, Val_loss:  2.99, time: 15.88, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch:  8, Val_loss:  3.03, time: 22.86, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch:  7, Val_loss:  3.07, time: 14.35, test_Acc:  39.04, test_bacc:  38.29, test_f1:  29.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch:  6, Val_loss:  3.08, time: 13.46, test_Acc:  39.25, test_bacc:  38.52, test_f1:  29.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch:  5, Val_loss:  3.18, time: 35.86, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  3.28, time: 30.30, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  3.40, time: 26.82, test_Acc:  38.38, test_bacc:  37.34, test_f1:  28.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  3.60, time: 32.31, test_Acc:  38.60, test_bacc:  37.44, test_f1:  28.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  3.85, time: 27.89, test_Acc:  37.94, test_bacc:  36.57, test_f1:  27.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  4.18, time: 30.95, test_Acc:  37.72, test_bacc:  36.32, test_f1:  26.75</t>
         </is>

--- a/TrueAug_SAGE_WikipediaNetworkchameleon12-31-14:38:06_dir.xlsx
+++ b/TrueAug_SAGE_WikipediaNetworkchameleon12-31-14:38:06_dir.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Epoch0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Split" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Epoch1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Epoch1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Split" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Epoch2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4535,7 +4536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4546,14 +4547,3577 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Split_Output</t>
+          <t>Epoch_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>split:   0, val_loss:   6.77, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+          <t>Epoch:509, Val_loss:  5.59, time: 18.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Epoch:508, Val_loss:  5.64, time: 15.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:507, Val_loss:  4.38, time: 12.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:506, Val_loss:  5.12, time: 15.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:505, Val_loss:  4.48, time: 10.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:504, Val_loss:  5.43, time: 11.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:503, Val_loss:  4.34, time: 11.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:502, Val_loss:  5.53, time: 12.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:501, Val_loss:  4.21, time: 15.09, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:500, Val_loss:  5.81, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:499, Val_loss:  4.31, time: 16.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:498, Val_loss:  5.98, time: 12.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:497, Val_loss:  4.66, time: 11.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:496, Val_loss:  6.60, time: 15.57, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:495, Val_loss:  4.85, time: 17.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:494, Val_loss:  6.64, time: 11.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:493, Val_loss:  4.74, time: 18.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:492, Val_loss:  4.33, time: 23.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:491, Val_loss:  5.03, time: 17.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:490, Val_loss:  3.97, time: 18.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:489, Val_loss:  5.70, time: 16.04, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:488, Val_loss:  3.52, time: 18.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:487, Val_loss:  5.76, time: 12.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:486, Val_loss:  3.88, time: 14.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:485, Val_loss:  5.40, time: 15.17, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:484, Val_loss:  3.62, time: 14.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:483, Val_loss:  6.08, time: 15.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:482, Val_loss:  3.72, time: 13.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:481, Val_loss:  5.16, time: 13.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:480, Val_loss:  3.86, time: 16.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:479, Val_loss:  5.15, time: 17.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:478, Val_loss:  4.04, time: 19.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:477, Val_loss:  5.98, time: 16.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:476, Val_loss:  4.29, time: 12.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:475, Val_loss:  5.55, time: 15.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:474, Val_loss:  4.78, time: 12.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:473, Val_loss:  4.03, time: 12.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:472, Val_loss:  5.15, time: 13.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:471, Val_loss:  4.03, time: 12.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:470, Val_loss:  4.73, time: 16.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:469, Val_loss:  4.43, time: 16.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:468, Val_loss:  5.34, time: 15.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:467, Val_loss:  4.12, time: 15.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:466, Val_loss:  4.99, time: 12.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:465, Val_loss:  3.64, time: 17.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:464, Val_loss:  4.61, time: 16.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:463, Val_loss:  3.89, time: 17.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:462, Val_loss:  5.07, time: 17.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:461, Val_loss:  3.89, time: 14.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:460, Val_loss:  5.31, time: 17.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:459, Val_loss:  3.73, time: 14.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:458, Val_loss:  5.19, time: 15.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:457, Val_loss:  4.35, time: 16.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:456, Val_loss:  5.67, time: 19.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:455, Val_loss:  4.58, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:454, Val_loss:  6.14, time: 13.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:453, Val_loss:  4.50, time: 10.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:452, Val_loss:  6.79, time: 15.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:451, Val_loss:  5.15, time: 13.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:450, Val_loss:  5.55, time: 14.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:449, Val_loss:  6.02, time: 19.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:448, Val_loss:  4.53, time: 19.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:447, Val_loss:  6.60, time: 12.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:446, Val_loss:  4.17, time: 18.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:445, Val_loss:  6.29, time: 16.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:444, Val_loss:  4.38, time: 17.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:443, Val_loss:  6.60, time: 14.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:442, Val_loss:  4.70, time: 14.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:441, Val_loss:  5.49, time: 14.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:440, Val_loss:  4.89, time: 11.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:439, Val_loss:  3.99, time: 11.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:438, Val_loss:  5.16, time: 11.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:437, Val_loss:  4.05, time: 12.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:436, Val_loss:  4.52, time: 17.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:435, Val_loss:  4.04, time: 16.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:434, Val_loss:  4.83, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:433, Val_loss:  3.99, time: 11.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:432, Val_loss:  4.98, time: 10.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:431, Val_loss:  4.24, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:430, Val_loss:  5.41, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:429, Val_loss:  4.51, time: 17.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:428, Val_loss:  4.18, time: 15.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:427, Val_loss:  4.93, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:426, Val_loss:  3.44, time: 16.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:425, Val_loss:  4.97, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:424, Val_loss:  3.53, time: 13.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:423, Val_loss:  4.90, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:422, Val_loss:  4.14, time: 15.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:421, Val_loss:  4.86, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:420, Val_loss:  4.16, time: 18.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:419, Val_loss:  4.97, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:418, Val_loss:  4.23, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:417, Val_loss:  5.02, time: 15.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:416, Val_loss:  4.65, time: 15.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:415, Val_loss:  5.32, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:414, Val_loss:  4.74, time: 24.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:413, Val_loss:  5.14, time: 20.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:412, Val_loss:  5.28, time: 15.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:411, Val_loss:  5.90, time: 18.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:410, Val_loss:  5.43, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:409, Val_loss:  4.87, time: 20.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:408, Val_loss:  5.82, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:407, Val_loss:  3.95, time: 16.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:406, Val_loss:  5.23, time: 17.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:405, Val_loss:  4.47, time: 19.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:404, Val_loss:  5.53, time: 17.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:403, Val_loss:  4.57, time: 19.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:402, Val_loss:  5.49, time: 19.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:401, Val_loss:  5.10, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:400, Val_loss:  5.61, time: 18.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:399, Val_loss:  5.80, time: 19.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:398, Val_loss:  4.52, time: 17.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:397, Val_loss:  5.73, time: 14.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:396, Val_loss:  4.70, time: 20.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:395, Val_loss:  6.13, time: 17.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:394, Val_loss:  5.23, time: 25.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:393, Val_loss:  6.29, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:392, Val_loss:  5.49, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:391, Val_loss:  6.56, time: 11.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:390, Val_loss:  4.96, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:389, Val_loss:  6.45, time: 11.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:388, Val_loss:  5.86, time: 12.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:387, Val_loss:  4.85, time: 15.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:386, Val_loss:  6.93, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:385, Val_loss:  4.71, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:384, Val_loss:  6.13, time: 20.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:383, Val_loss:  4.64, time: 15.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:382, Val_loss:  6.32, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:381, Val_loss:  4.49, time: 15.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:380, Val_loss:  5.68, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:379, Val_loss:  4.77, time: 18.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:378, Val_loss:  5.51, time: 15.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:377, Val_loss:  5.48, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:376, Val_loss:  4.10, time: 17.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:375, Val_loss:  5.67, time: 13.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:374, Val_loss:  3.63, time: 10.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:373, Val_loss:  6.05, time: 12.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:372, Val_loss:  3.57, time: 11.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:371, Val_loss:  4.90, time: 12.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:370, Val_loss:  4.14, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:369, Val_loss:  5.01, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:368, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:367, Val_loss:  5.42, time: 16.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:366, Val_loss:  4.28, time: 14.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:365, Val_loss:  5.10, time: 13.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:364, Val_loss:  4.66, time: 14.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:363, Val_loss:  5.51, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:362, Val_loss:  4.67, time: 13.09, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:361, Val_loss:  4.74, time: 13.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:360, Val_loss:  5.07, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:359, Val_loss:  4.57, time: 12.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:358, Val_loss:  5.18, time: 14.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:357, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:356, Val_loss:  5.23, time: 16.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:355, Val_loss:  5.45, time: 15.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:354, Val_loss:  5.58, time: 17.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:353, Val_loss:  4.95, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:352, Val_loss:  5.14, time: 20.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:351, Val_loss:  4.88, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:350, Val_loss:  5.24, time: 20.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:349, Val_loss:  4.62, time: 22.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:348, Val_loss:  5.01, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:347, Val_loss:  4.71, time: 18.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:346, Val_loss:  5.26, time: 18.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:345, Val_loss:  4.90, time: 19.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:344, Val_loss:  5.97, time: 14.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:343, Val_loss:  5.01, time: 17.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:342, Val_loss:  5.41, time: 18.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:341, Val_loss:  5.63, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:340, Val_loss:  4.31, time: 15.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:339, Val_loss:  5.70, time: 15.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:338, Val_loss:  3.98, time: 16.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:337, Val_loss:  4.88, time: 15.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:336, Val_loss:  4.15, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:335, Val_loss:  4.79, time: 14.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:334, Val_loss:  4.81, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:333, Val_loss:  4.73, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:332, Val_loss:  4.84, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:331, Val_loss:  5.24, time: 14.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:330, Val_loss:  5.04, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:329, Val_loss:  5.62, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:328, Val_loss:  4.47, time: 16.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:327, Val_loss:  6.26, time: 12.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:326, Val_loss:  3.39, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:325, Val_loss:  6.66, time: 12.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:324, Val_loss:  3.74, time: 12.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:323, Val_loss:  5.08, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:322, Val_loss:  4.55, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:321, Val_loss:  5.07, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:320, Val_loss:  4.82, time: 13.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:319, Val_loss:  5.15, time: 15.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:318, Val_loss:  4.95, time: 18.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:317, Val_loss:  5.60, time: 18.57, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:316, Val_loss:  4.42, time: 23.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:315, Val_loss:  5.29, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:314, Val_loss:  5.22, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:313, Val_loss:  5.33, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:312, Val_loss:  4.92, time: 15.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:311, Val_loss:  5.17, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:310, Val_loss:  6.09, time: 13.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:309, Val_loss:  5.29, time: 14.04, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:308, Val_loss:  6.29, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:307, Val_loss:  4.11, time: 14.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:306, Val_loss:  6.29, time: 13.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:305, Val_loss:  3.31, time: 15.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:304, Val_loss:  4.69, time: 14.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:303, Val_loss:  3.63, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:302, Val_loss:  4.92, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:301, Val_loss:  3.74, time: 13.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:300, Val_loss:  5.03, time: 12.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:299, Val_loss:  3.53, time: 14.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:298, Val_loss:  5.65, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:297, Val_loss:  3.70, time: 14.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:296, Val_loss:  4.86, time: 15.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:295, Val_loss:  4.30, time: 17.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:294, Val_loss:  4.86, time: 16.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:293, Val_loss:  4.14, time: 17.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:292, Val_loss:  5.41, time: 13.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:291, Val_loss:  3.85, time: 16.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:290, Val_loss:  5.34, time: 13.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:289, Val_loss:  4.36, time: 14.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:288, Val_loss:  5.05, time: 11.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:287, Val_loss:  4.77, time: 15.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:286, Val_loss:  5.34, time: 18.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:285, Val_loss:  4.65, time: 15.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:284, Val_loss:  4.45, time: 18.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:283, Val_loss:  5.37, time: 18.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:282, Val_loss:  3.57, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:281, Val_loss:  5.48, time: 13.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:280, Val_loss:  4.01, time: 16.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:279, Val_loss:  5.63, time: 12.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:278, Val_loss:  3.76, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:277, Val_loss:  5.84, time: 16.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:276, Val_loss:  3.87, time: 17.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:275, Val_loss:  6.21, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:274, Val_loss:  3.89, time: 16.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:273, Val_loss:  6.15, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:272, Val_loss:  3.98, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:271, Val_loss:  5.38, time: 21.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:270, Val_loss:  4.30, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:269, Val_loss:  5.62, time: 13.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:268, Val_loss:  4.65, time: 11.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:267, Val_loss:  5.48, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:266, Val_loss:  4.93, time: 15.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:265, Val_loss:  5.89, time: 14.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:264, Val_loss:  5.15, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:263, Val_loss:  6.47, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:262, Val_loss:  5.20, time: 13.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:261, Val_loss:  6.70, time: 15.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:260, Val_loss:  4.30, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:259, Val_loss:  6.39, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:258, Val_loss:  4.72, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:257, Val_loss:  6.64, time: 20.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:256, Val_loss:  4.59, time: 15.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:255, Val_loss:  7.32, time: 16.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:254, Val_loss:  4.79, time: 16.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:253, Val_loss:  7.12, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:252, Val_loss:  6.40, time: 17.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:251, Val_loss:  4.57, time: 18.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:250, Val_loss:  6.20, time: 15.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:249, Val_loss:  3.66, time: 12.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:248, Val_loss:  6.15, time: 17.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:247, Val_loss:  4.09, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:246, Val_loss:  6.44, time: 17.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:245, Val_loss:  3.88, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:244, Val_loss:  6.54, time: 13.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:243, Val_loss:  3.79, time: 17.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:242, Val_loss:  5.50, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:241, Val_loss:  5.06, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:240, Val_loss:  5.35, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:239, Val_loss:  5.90, time: 11.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:238, Val_loss:  4.97, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:237, Val_loss:  5.90, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:236, Val_loss:  3.75, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:235, Val_loss:  6.91, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:234, Val_loss:  3.35, time: 15.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:233, Val_loss:  5.52, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:232, Val_loss:  4.01, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:231, Val_loss:  5.97, time: 12.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:230, Val_loss:  3.98, time: 18.03, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:229, Val_loss:  5.17, time: 16.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:228, Val_loss:  4.63, time: 19.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:227, Val_loss:  5.32, time: 16.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:226, Val_loss:  4.95, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:225, Val_loss:  4.86, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:224, Val_loss:  5.00, time: 14.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:223, Val_loss:  5.17, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:222, Val_loss:  4.97, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:221, Val_loss:  4.42, time: 14.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:220, Val_loss:  5.39, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:219, Val_loss:  3.93, time: 11.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:218, Val_loss:  5.42, time: 13.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:217, Val_loss:  4.08, time: 20.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:216, Val_loss:  5.61, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:215, Val_loss:  4.45, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:214, Val_loss:  5.97, time: 15.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:213, Val_loss:  4.62, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:212, Val_loss:  5.81, time: 13.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:211, Val_loss:  4.63, time: 13.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:210, Val_loss:  6.04, time: 16.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:209, Val_loss:  4.65, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:208, Val_loss:  6.21, time: 16.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:207, Val_loss:  5.53, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:206, Val_loss:  5.44, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:205, Val_loss:  5.27, time: 10.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:204, Val_loss:  6.32, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:203, Val_loss:  5.14, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:202, Val_loss:  6.49, time: 12.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:201, Val_loss:  5.12, time: 23.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:200, Val_loss:  6.68, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:199, Val_loss:  5.41, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:198, Val_loss:  6.15, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:197, Val_loss:  4.97, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:196, Val_loss:  6.82, time: 16.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:195, Val_loss:  4.19, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:194, Val_loss:  6.57, time: 21.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:193, Val_loss:  3.16, time: 17.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:192, Val_loss:  6.32, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:191, Val_loss:  3.56, time: 18.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:190, Val_loss:  6.29, time: 18.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:189, Val_loss:  3.63, time: 17.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:188, Val_loss:  7.11, time: 16.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:187, Val_loss:  3.60, time: 13.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:186, Val_loss:  6.25, time: 14.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:185, Val_loss:  3.34, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:184, Val_loss:  6.22, time: 13.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:183, Val_loss:  4.17, time: 13.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:182, Val_loss:  6.00, time: 14.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:181, Val_loss:  4.40, time: 12.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:180, Val_loss:  6.95, time: 12.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:179, Val_loss:  5.23, time: 16.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:178, Val_loss:  5.78, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:177, Val_loss:  5.50, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:176, Val_loss:  6.19, time: 20.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:175, Val_loss:  5.96, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:174, Val_loss:  6.73, time: 11.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:173, Val_loss:  6.11, time: 15.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:172, Val_loss:  6.95, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:171, Val_loss:  6.30, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:170, Val_loss:  6.56, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:169, Val_loss:  5.38, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:168, Val_loss:  9.42, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:167, Val_loss:  3.89, time: 18.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:166, Val_loss:  6.71, time: 14.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:165, Val_loss:  4.43, time: 13.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:164, Val_loss:  6.03, time: 14.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:163, Val_loss:  5.03, time: 16.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:162, Val_loss:  5.57, time: 17.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:161, Val_loss:  5.34, time: 19.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:160, Val_loss:  4.97, time: 18.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:159, Val_loss:  5.87, time: 14.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:158, Val_loss:  4.08, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:157, Val_loss:  5.44, time: 12.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:156, Val_loss:  4.49, time: 17.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:155, Val_loss:  5.11, time: 13.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:154, Val_loss:  4.57, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:153, Val_loss:  5.15, time: 11.69, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:152, Val_loss:  4.46, time: 12.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:151, Val_loss:  5.62, time: 15.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:150, Val_loss:  4.16, time: 16.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:149, Val_loss:  5.50, time: 13.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:148, Val_loss:  4.40, time: 14.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:147, Val_loss:  5.82, time: 13.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:146, Val_loss:  5.36, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:145, Val_loss:  6.02, time: 14.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:144, Val_loss:  5.94, time: 19.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:143, Val_loss:  5.95, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:142, Val_loss:  6.09, time: 13.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:141, Val_loss:  6.35, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:140, Val_loss:  5.77, time: 11.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:139, Val_loss:  6.57, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:138, Val_loss:  5.66, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:137, Val_loss:  7.36, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:136, Val_loss:  5.24, time: 20.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:135, Val_loss:  7.32, time: 15.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:134, Val_loss:  5.20, time: 12.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:133, Val_loss:  7.76, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:132, Val_loss:  4.96, time: 13.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:131, Val_loss:  7.32, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:130, Val_loss:  5.15, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:129, Val_loss:  7.93, time: 19.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:128, Val_loss:  5.24, time: 15.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:127, Val_loss:  7.68, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:126, Val_loss:  5.53, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:125, Val_loss:  8.10, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:124, Val_loss:  5.51, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:123, Val_loss:  8.24, time: 16.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:122, Val_loss:  5.57, time: 17.82, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:121, Val_loss:  8.65, time: 13.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:120, Val_loss:  5.63, time: 14.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:119, Val_loss:  9.31, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:118, Val_loss:  5.33, time: 13.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:117, Val_loss:  9.55, time: 15.38, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:116, Val_loss:  5.31, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:115, Val_loss:  9.01, time: 16.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:114, Val_loss:  7.23, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:113, Val_loss:  3.84, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:112, Val_loss:  6.01, time: 13.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:111, Val_loss:  2.98, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:110, Val_loss:  2.68, time: 15.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:109, Val_loss:  3.00, time: 15.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:108, Val_loss:  2.66, time: 14.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:107, Val_loss:  3.04, time: 15.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch:106, Val_loss:  2.61, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch:105, Val_loss:  3.05, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch:104, Val_loss:  2.60, time: 11.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch:103, Val_loss:  2.86, time: 16.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch:102, Val_loss:  2.59, time: 20.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch:101, Val_loss:  2.96, time: 19.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch:100, Val_loss:  2.59, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch: 99, Val_loss:  3.00, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch: 98, Val_loss:  2.59, time: 14.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch: 97, Val_loss:  3.04, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch: 96, Val_loss:  2.71, time: 12.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch: 95, Val_loss:  2.98, time: 17.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch: 94, Val_loss:  2.60, time: 20.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch: 93, Val_loss:  2.97, time: 20.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch: 92, Val_loss:  2.63, time: 18.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch: 91, Val_loss:  2.91, time: 13.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch: 90, Val_loss:  2.66, time: 14.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch: 89, Val_loss:  2.98, time: 11.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch: 88, Val_loss:  2.65, time: 13.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch: 87, Val_loss:  3.01, time: 17.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch: 86, Val_loss:  2.65, time: 14.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch: 85, Val_loss:  2.95, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch: 84, Val_loss:  2.63, time: 13.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch: 83, Val_loss:  2.95, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch: 82, Val_loss:  2.62, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch: 81, Val_loss:  2.88, time: 16.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch: 80, Val_loss:  2.61, time: 16.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch: 79, Val_loss:  2.86, time: 17.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch: 78, Val_loss:  2.64, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch: 77, Val_loss:  2.98, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch: 76, Val_loss:  2.57, time: 14.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch: 75, Val_loss:  2.98, time: 13.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch: 74, Val_loss:  2.68, time: 14.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch: 73, Val_loss:  2.89, time: 12.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch: 72, Val_loss:  2.64, time: 14.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch: 71, Val_loss:  3.00, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch: 70, Val_loss:  2.60, time: 17.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch: 69, Val_loss:  2.92, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch: 68, Val_loss:  2.59, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch: 67, Val_loss:  2.79, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch: 66, Val_loss:  2.68, time: 20.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch: 65, Val_loss:  2.87, time: 19.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch: 64, Val_loss:  2.67, time: 14.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch: 63, Val_loss:  2.91, time: 17.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch: 62, Val_loss:  2.62, time: 15.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch: 61, Val_loss:  2.88, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch: 60, Val_loss:  2.65, time: 20.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch: 59, Val_loss:  2.91, time: 17.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch: 58, Val_loss:  2.65, time: 15.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch: 57, Val_loss:  2.78, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch: 56, Val_loss:  2.61, time: 18.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch: 55, Val_loss:  2.82, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch: 54, Val_loss:  2.63, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch: 53, Val_loss:  2.87, time: 12.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch: 52, Val_loss:  2.66, time: 18.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch: 51, Val_loss:  2.86, time: 20.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch: 50, Val_loss:  2.66, time: 11.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch: 49, Val_loss:  2.83, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch: 48, Val_loss:  2.70, time: 14.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch: 47, Val_loss:  2.71, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch: 46, Val_loss:  2.67, time: 11.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch: 45, Val_loss:  2.93, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch: 44, Val_loss:  2.65, time: 14.17, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch: 43, Val_loss:  2.82, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch: 42, Val_loss:  2.67, time: 16.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch: 41, Val_loss:  2.85, time: 18.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch: 40, Val_loss:  2.64, time: 27.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch: 39, Val_loss:  2.83, time: 20.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch: 38, Val_loss:  2.70, time: 17.28, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch: 37, Val_loss:  2.80, time: 20.36, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch: 36, Val_loss:  2.79, time: 15.68, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch: 35, Val_loss:  2.73, time: 16.54, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch: 34, Val_loss:  2.81, time: 15.21, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch: 33, Val_loss:  2.71, time: 21.91, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch: 32, Val_loss:  2.71, time: 17.24, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch: 31, Val_loss:  2.76, time: 21.08, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch: 30, Val_loss:  2.74, time: 16.98, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch: 29, Val_loss:  2.81, time: 14.69, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch: 28, Val_loss:  2.72, time: 13.01, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch: 27, Val_loss:  2.84, time: 22.84, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch: 26, Val_loss:  2.77, time: 14.48, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch: 25, Val_loss:  2.78, time: 19.02, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch: 24, Val_loss:  2.75, time: 17.41, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch: 23, Val_loss:  2.72, time: 12.99, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch: 22, Val_loss:  2.85, time: 14.56, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch: 21, Val_loss:  2.81, time: 18.81, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch: 20, Val_loss:  2.83, time: 15.61, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch: 19, Val_loss:  2.85, time: 16.00, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch: 18, Val_loss:  2.83, time: 16.32, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch: 17, Val_loss:  2.83, time: 18.37, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch: 16, Val_loss:  2.90, time: 15.43, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch: 15, Val_loss:  2.86, time: 17.98, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch: 14, Val_loss:  2.97, time: 15.48, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch: 13, Val_loss:  2.88, time: 15.64, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch: 12, Val_loss:  2.94, time: 14.68, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch: 11, Val_loss:  2.94, time: 13.05, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch: 10, Val_loss:  2.93, time: 14.75, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch:  9, Val_loss:  2.99, time: 15.88, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch:  8, Val_loss:  3.03, time: 22.86, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch:  7, Val_loss:  3.07, time: 14.35, test_Acc:  39.04, test_bacc:  38.29, test_f1:  29.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Epoch:  6, Val_loss:  3.08, time: 13.46, test_Acc:  39.25, test_bacc:  38.52, test_f1:  29.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Epoch:  5, Val_loss:  3.18, time: 35.86, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  3.28, time: 30.30, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  3.40, time: 26.82, test_Acc:  38.38, test_bacc:  37.34, test_f1:  28.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  3.60, time: 32.31, test_Acc:  38.60, test_bacc:  37.44, test_f1:  28.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  3.85, time: 27.89, test_Acc:  37.94, test_bacc:  36.57, test_f1:  27.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Epoch:  0, Val_loss:  4.18, time: 30.95, test_Acc:  37.72, test_bacc:  36.32, test_f1:  26.75</t>
         </is>
       </c>
     </row>
@@ -4568,7 +8132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A470"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4579,3290 +8143,2308 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Epoch_Output</t>
+          <t>Split_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:468, Val_loss:  5.34, time: 15.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>split:   1, val_loss:   4.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:467, Val_loss:  4.12, time: 15.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>split:   0, val_loss:   6.77, test_Acc:  35.09, test_bacc:  34.33, test_f1:  27.57</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A324"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Epoch:322, Val_loss:  6.77, time: 23.87, test_Acc:  35.09, test_bacc:  33.09, test_f1:  28.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Epoch:321, Val_loss:  6.11, time: 20.41, test_Acc:  35.09, test_bacc:  33.09, test_f1:  28.59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:466, Val_loss:  4.99, time: 12.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:320, Val_loss:  7.70, time: 14.54, test_Acc:  35.09, test_bacc:  33.09, test_f1:  28.59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:465, Val_loss:  3.64, time: 17.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:319, Val_loss:  4.39, time: 20.13, test_Acc:  35.09, test_bacc:  33.09, test_f1:  28.59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:464, Val_loss:  4.61, time: 16.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:318, Val_loss:  7.65, time: 19.12, test_Acc:  35.09, test_bacc:  33.09, test_f1:  28.59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:463, Val_loss:  3.89, time: 17.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:317, Val_loss:  4.52, time: 21.46, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:462, Val_loss:  5.07, time: 17.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:316, Val_loss:  6.16, time: 24.82, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:461, Val_loss:  3.89, time: 14.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:315, Val_loss:  5.10, time: 23.46, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:460, Val_loss:  5.31, time: 17.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:314, Val_loss:  6.58, time: 19.11, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:459, Val_loss:  3.73, time: 14.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:313, Val_loss:  5.37, time: 17.16, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:458, Val_loss:  5.19, time: 15.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:312, Val_loss:  5.95, time: 21.32, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:457, Val_loss:  4.35, time: 16.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:311, Val_loss:  5.67, time: 21.08, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:456, Val_loss:  5.67, time: 19.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:310, Val_loss:  6.23, time: 24.54, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:455, Val_loss:  4.58, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:309, Val_loss:  4.60, time: 24.14, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:454, Val_loss:  6.14, time: 13.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:308, Val_loss:  6.74, time: 21.01, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:453, Val_loss:  4.50, time: 10.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:307, Val_loss:  4.74, time: 18.97, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:452, Val_loss:  6.79, time: 15.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:306, Val_loss:  7.07, time: 21.08, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:451, Val_loss:  5.15, time: 13.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:305, Val_loss:  4.19, time: 22.07, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:450, Val_loss:  5.55, time: 14.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:304, Val_loss:  7.11, time: 19.27, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:449, Val_loss:  6.02, time: 19.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:303, Val_loss:  5.23, time: 20.17, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:448, Val_loss:  4.53, time: 19.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:302, Val_loss:  6.18, time: 18.24, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:447, Val_loss:  6.60, time: 12.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:301, Val_loss:  5.85, time: 17.56, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:446, Val_loss:  4.17, time: 18.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:300, Val_loss:  5.03, time: 18.01, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:445, Val_loss:  6.29, time: 16.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:299, Val_loss:  6.28, time: 20.41, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:444, Val_loss:  4.38, time: 17.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:298, Val_loss:  4.31, time: 23.45, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:443, Val_loss:  6.60, time: 14.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:297, Val_loss:  7.76, time: 16.16, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:442, Val_loss:  4.70, time: 14.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:296, Val_loss:  4.20, time: 18.95, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:441, Val_loss:  5.49, time: 14.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:295, Val_loss:  6.63, time: 20.08, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:440, Val_loss:  4.89, time: 11.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:294, Val_loss:  4.12, time: 24.92, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:439, Val_loss:  3.99, time: 11.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:293, Val_loss:  6.45, time: 21.39, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:438, Val_loss:  5.16, time: 11.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:292, Val_loss:  5.40, time: 22.51, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:437, Val_loss:  4.05, time: 12.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:291, Val_loss:  6.79, time: 21.23, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:436, Val_loss:  4.52, time: 17.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:290, Val_loss:  6.17, time: 26.64, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:435, Val_loss:  4.04, time: 16.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:289, Val_loss:  6.16, time: 21.97, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:434, Val_loss:  4.83, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:288, Val_loss:  6.63, time: 26.40, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:433, Val_loss:  3.99, time: 11.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:287, Val_loss:  6.25, time: 17.67, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:432, Val_loss:  4.98, time: 10.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:286, Val_loss:  7.02, time: 16.34, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:431, Val_loss:  4.24, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:285, Val_loss:  4.79, time: 19.55, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:430, Val_loss:  5.41, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:284, Val_loss:  7.50, time: 23.72, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:429, Val_loss:  4.51, time: 17.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:283, Val_loss:  3.99, time: 22.98, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:428, Val_loss:  4.18, time: 15.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:282, Val_loss:  7.48, time: 21.82, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:427, Val_loss:  4.93, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:281, Val_loss:  3.92, time: 20.92, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:426, Val_loss:  3.44, time: 16.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:280, Val_loss:  7.05, time: 26.07, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:425, Val_loss:  4.97, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:279, Val_loss:  4.82, time: 21.25, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:424, Val_loss:  3.53, time: 13.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:278, Val_loss:  5.42, time: 20.30, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:423, Val_loss:  4.90, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:277, Val_loss:  4.80, time: 21.58, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:422, Val_loss:  4.14, time: 15.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:276, Val_loss:  5.20, time: 19.07, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:421, Val_loss:  4.86, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:275, Val_loss:  5.80, time: 20.01, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:420, Val_loss:  4.16, time: 18.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:274, Val_loss:  5.69, time: 16.65, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:419, Val_loss:  4.97, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:273, Val_loss:  6.06, time: 24.62, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:418, Val_loss:  4.23, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:272, Val_loss:  5.67, time: 18.43, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:417, Val_loss:  5.02, time: 15.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:271, Val_loss:  5.83, time: 21.43, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:416, Val_loss:  4.65, time: 15.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:270, Val_loss:  5.53, time: 15.57, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:415, Val_loss:  5.32, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:269, Val_loss:  6.62, time: 20.26, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:414, Val_loss:  4.74, time: 24.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:268, Val_loss:  5.91, time: 23.92, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:413, Val_loss:  5.14, time: 20.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:267, Val_loss:  5.70, time: 16.95, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:412, Val_loss:  5.28, time: 15.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:266, Val_loss:  6.30, time: 15.72, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:411, Val_loss:  5.90, time: 18.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:265, Val_loss:  6.05, time: 19.79, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:410, Val_loss:  5.43, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:264, Val_loss:  5.57, time: 16.88, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:409, Val_loss:  4.87, time: 20.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:263, Val_loss:  6.12, time: 25.35, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:408, Val_loss:  5.82, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:262, Val_loss:  5.06, time: 20.35, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:407, Val_loss:  3.95, time: 16.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:261, Val_loss:  6.60, time: 25.03, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:406, Val_loss:  5.23, time: 17.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:260, Val_loss:  4.75, time: 26.44, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:405, Val_loss:  4.47, time: 19.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:259, Val_loss:  7.58, time: 20.87, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:404, Val_loss:  5.53, time: 17.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:258, Val_loss:  4.13, time: 20.45, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:403, Val_loss:  4.57, time: 19.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:257, Val_loss:  6.69, time: 21.76, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:402, Val_loss:  5.49, time: 19.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:256, Val_loss:  4.96, time: 19.00, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:401, Val_loss:  5.10, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:255, Val_loss:  7.12, time: 24.93, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:400, Val_loss:  5.61, time: 18.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:254, Val_loss:  4.50, time: 22.87, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:399, Val_loss:  5.80, time: 19.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:253, Val_loss:  8.06, time: 21.52, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:398, Val_loss:  4.52, time: 17.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:252, Val_loss:  6.11, time: 18.75, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:397, Val_loss:  5.73, time: 14.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:251, Val_loss:  6.57, time: 24.34, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:396, Val_loss:  4.70, time: 20.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:250, Val_loss:  6.04, time: 18.25, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:395, Val_loss:  6.13, time: 17.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:249, Val_loss:  6.17, time: 18.46, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:394, Val_loss:  5.23, time: 25.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:248, Val_loss:  6.92, time: 22.78, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:393, Val_loss:  6.29, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:247, Val_loss:  5.36, time: 19.75, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:392, Val_loss:  5.49, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:246, Val_loss:  5.81, time: 19.25, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:391, Val_loss:  6.56, time: 11.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:245, Val_loss:  5.98, time: 19.36, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:390, Val_loss:  4.96, time: 14.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:244, Val_loss:  4.47, time: 14.44, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:389, Val_loss:  6.45, time: 11.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:243, Val_loss:  6.35, time: 20.57, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:388, Val_loss:  5.86, time: 12.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:242, Val_loss:  4.31, time: 21.11, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:387, Val_loss:  4.85, time: 15.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:241, Val_loss:  7.06, time: 19.99, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:386, Val_loss:  6.93, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:240, Val_loss:  4.84, time: 21.40, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:385, Val_loss:  4.71, time: 16.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:239, Val_loss:  7.18, time: 22.87, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:384, Val_loss:  6.13, time: 20.62, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:238, Val_loss:  5.17, time: 22.34, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:383, Val_loss:  4.64, time: 15.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:237, Val_loss:  6.44, time: 20.54, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:382, Val_loss:  6.32, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:236, Val_loss:  6.36, time: 15.03, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:381, Val_loss:  4.49, time: 15.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:235, Val_loss:  7.04, time: 16.12, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:380, Val_loss:  5.68, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:234, Val_loss:  5.76, time: 21.56, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:379, Val_loss:  4.77, time: 18.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:233, Val_loss:  7.26, time: 18.45, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:378, Val_loss:  5.51, time: 15.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:232, Val_loss:  7.38, time: 25.27, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:377, Val_loss:  5.48, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:231, Val_loss:  6.63, time: 18.59, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:376, Val_loss:  4.10, time: 17.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:230, Val_loss:  6.99, time: 15.73, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:375, Val_loss:  5.67, time: 13.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:229, Val_loss:  6.18, time: 25.78, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:374, Val_loss:  3.63, time: 10.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:228, Val_loss:  5.59, time: 23.10, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:373, Val_loss:  6.05, time: 12.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:227, Val_loss:  5.42, time: 21.99, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:372, Val_loss:  3.57, time: 11.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:226, Val_loss:  6.04, time: 21.13, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:371, Val_loss:  4.90, time: 12.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:225, Val_loss:  4.19, time: 21.63, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:370, Val_loss:  4.14, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:224, Val_loss:  7.13, time: 18.87, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:369, Val_loss:  5.01, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:223, Val_loss:  3.92, time: 19.86, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:368, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:222, Val_loss:  7.43, time: 22.72, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:367, Val_loss:  5.42, time: 16.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:221, Val_loss:  4.36, time: 19.51, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:366, Val_loss:  4.28, time: 14.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:220, Val_loss:  8.45, time: 20.04, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:365, Val_loss:  5.10, time: 13.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:219, Val_loss:  4.96, time: 19.85, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:364, Val_loss:  4.66, time: 14.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:218, Val_loss:  6.90, time: 17.56, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:363, Val_loss:  5.51, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:217, Val_loss:  4.82, time: 21.17, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:362, Val_loss:  4.67, time: 13.09, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:216, Val_loss:  7.26, time: 20.73, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:361, Val_loss:  4.74, time: 13.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:215, Val_loss:  6.43, time: 18.36, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:360, Val_loss:  5.07, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:214, Val_loss:  6.79, time: 21.96, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:359, Val_loss:  4.57, time: 12.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:213, Val_loss:  6.07, time: 24.09, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:358, Val_loss:  5.18, time: 14.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:212, Val_loss:  5.14, time: 16.54, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:357, Val_loss:  4.66, time: 19.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:211, Val_loss:  6.88, time: 27.34, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:356, Val_loss:  5.23, time: 16.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:210, Val_loss:  4.80, time: 20.46, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:355, Val_loss:  5.45, time: 15.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:209, Val_loss:  7.50, time: 21.02, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:354, Val_loss:  5.58, time: 17.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:208, Val_loss:  4.68, time: 23.78, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:353, Val_loss:  4.95, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:207, Val_loss:  6.94, time: 19.51, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:352, Val_loss:  5.14, time: 20.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:206, Val_loss:  5.55, time: 21.66, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:351, Val_loss:  4.88, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:205, Val_loss:  6.52, time: 22.19, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:350, Val_loss:  5.24, time: 20.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:204, Val_loss:  6.14, time: 21.34, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:349, Val_loss:  4.62, time: 22.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:203, Val_loss:  6.54, time: 20.00, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:348, Val_loss:  5.01, time: 19.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:202, Val_loss:  6.34, time: 21.53, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:347, Val_loss:  4.71, time: 18.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:201, Val_loss:  6.25, time: 17.84, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:346, Val_loss:  5.26, time: 18.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:200, Val_loss:  5.89, time: 28.11, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:345, Val_loss:  4.90, time: 19.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:199, Val_loss:  6.68, time: 22.85, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:344, Val_loss:  5.97, time: 14.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:198, Val_loss:  5.57, time: 20.30, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:343, Val_loss:  5.01, time: 17.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:197, Val_loss:  7.17, time: 20.54, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:342, Val_loss:  5.41, time: 18.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:196, Val_loss:  6.37, time: 17.78, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:341, Val_loss:  5.63, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:195, Val_loss:  7.63, time: 18.57, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:340, Val_loss:  4.31, time: 15.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:194, Val_loss:  5.57, time: 20.05, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:339, Val_loss:  5.70, time: 15.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:193, Val_loss:  6.86, time: 19.25, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:338, Val_loss:  3.98, time: 16.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:192, Val_loss:  7.09, time: 21.08, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:337, Val_loss:  4.88, time: 15.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:191, Val_loss:  6.25, time: 20.23, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:336, Val_loss:  4.15, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:190, Val_loss:  6.49, time: 22.79, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:335, Val_loss:  4.79, time: 14.87, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:189, Val_loss:  5.80, time: 24.86, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:334, Val_loss:  4.81, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:188, Val_loss:  6.59, time: 17.87, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:333, Val_loss:  4.73, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:187, Val_loss:  5.09, time: 23.56, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:332, Val_loss:  4.84, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:186, Val_loss:  5.25, time: 18.44, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:331, Val_loss:  5.24, time: 14.11, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:185, Val_loss:  6.20, time: 23.45, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:330, Val_loss:  5.04, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:184, Val_loss:  5.37, time: 20.39, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:329, Val_loss:  5.62, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:183, Val_loss:  6.80, time: 18.12, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:328, Val_loss:  4.47, time: 16.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:182, Val_loss:  5.71, time: 20.95, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:327, Val_loss:  6.26, time: 12.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:181, Val_loss:  6.84, time: 18.04, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:326, Val_loss:  3.39, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:180, Val_loss:  6.66, time: 19.81, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:325, Val_loss:  6.66, time: 12.68, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:179, Val_loss:  5.05, time: 16.05, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:324, Val_loss:  3.74, time: 12.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:178, Val_loss:  5.20, time: 21.52, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epoch:323, Val_loss:  5.08, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:177, Val_loss:  6.36, time: 20.81, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Epoch:322, Val_loss:  4.55, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:176, Val_loss:  4.40, time: 15.53, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Epoch:321, Val_loss:  5.07, time: 17.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:175, Val_loss:  6.39, time: 18.16, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Epoch:320, Val_loss:  4.82, time: 13.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:174, Val_loss:  4.35, time: 22.19, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Epoch:319, Val_loss:  5.15, time: 15.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:173, Val_loss:  6.60, time: 17.35, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Epoch:318, Val_loss:  4.95, time: 18.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:172, Val_loss:  4.22, time: 23.50, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Epoch:317, Val_loss:  5.60, time: 18.57, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:171, Val_loss:  7.15, time: 20.18, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Epoch:316, Val_loss:  4.42, time: 23.83, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:170, Val_loss:  5.19, time: 21.22, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Epoch:315, Val_loss:  5.29, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:169, Val_loss:  7.92, time: 18.10, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Epoch:314, Val_loss:  5.22, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:168, Val_loss:  5.47, time: 20.00, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Epoch:313, Val_loss:  5.33, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:167, Val_loss:  7.23, time: 21.96, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Epoch:312, Val_loss:  4.92, time: 15.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:166, Val_loss:  6.44, time: 20.27, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epoch:311, Val_loss:  5.17, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:165, Val_loss:  8.32, time: 23.04, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Epoch:310, Val_loss:  6.09, time: 13.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:164, Val_loss:  7.30, time: 25.41, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Epoch:309, Val_loss:  5.29, time: 14.04, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:163, Val_loss:  7.32, time: 20.10, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Epoch:308, Val_loss:  6.29, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:162, Val_loss:  8.27, time: 23.59, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Epoch:307, Val_loss:  4.11, time: 14.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:161, Val_loss:  7.41, time: 19.51, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Epoch:306, Val_loss:  6.29, time: 13.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:160, Val_loss:  8.04, time: 20.94, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Epoch:305, Val_loss:  3.31, time: 15.48, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:159, Val_loss:  8.09, time: 19.81, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Epoch:304, Val_loss:  4.69, time: 14.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:158, Val_loss:  8.07, time: 21.70, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Epoch:303, Val_loss:  3.63, time: 13.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:157, Val_loss:  8.28, time: 17.99, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Epoch:302, Val_loss:  4.92, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:156, Val_loss:  9.38, time: 18.52, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Epoch:301, Val_loss:  3.74, time: 13.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:155, Val_loss:  8.41, time: 20.04, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Epoch:300, Val_loss:  5.03, time: 12.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:154, Val_loss:  9.27, time: 21.97, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Epoch:299, Val_loss:  3.53, time: 14.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:153, Val_loss:  8.21, time: 24.88, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Epoch:298, Val_loss:  5.65, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:152, Val_loss:  9.24, time: 23.03, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Epoch:297, Val_loss:  3.70, time: 14.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:151, Val_loss:  7.27, time: 26.30, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Epoch:296, Val_loss:  4.86, time: 15.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:150, Val_loss:  8.77, time: 23.81, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Epoch:295, Val_loss:  4.30, time: 17.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:149, Val_loss:  7.90, time: 23.03, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Epoch:294, Val_loss:  4.86, time: 16.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:148, Val_loss:  9.16, time: 16.62, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Epoch:293, Val_loss:  4.14, time: 17.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:147, Val_loss:  7.77, time: 18.62, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Epoch:292, Val_loss:  5.41, time: 13.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:146, Val_loss:  9.13, time: 25.44, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Epoch:291, Val_loss:  3.85, time: 16.86, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:145, Val_loss:  7.20, time: 23.98, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Epoch:290, Val_loss:  5.34, time: 13.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:144, Val_loss:  9.33, time: 20.31, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Epoch:289, Val_loss:  4.36, time: 14.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:143, Val_loss:  6.49, time: 22.95, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Epoch:288, Val_loss:  5.05, time: 11.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:142, Val_loss:  9.72, time: 18.32, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Epoch:287, Val_loss:  4.77, time: 15.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:141, Val_loss:  5.47, time: 21.14, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Epoch:286, Val_loss:  5.34, time: 18.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:140, Val_loss:  8.56, time: 19.20, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Epoch:285, Val_loss:  4.65, time: 15.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:139, Val_loss:  5.94, time: 20.21, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Epoch:284, Val_loss:  4.45, time: 18.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:138, Val_loss:  8.99, time: 23.56, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Epoch:283, Val_loss:  5.37, time: 18.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:137, Val_loss:  5.46, time: 23.68, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Epoch:282, Val_loss:  3.57, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:136, Val_loss:  9.91, time: 25.62, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Epoch:281, Val_loss:  5.48, time: 13.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:135, Val_loss:  7.03, time: 23.32, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Epoch:280, Val_loss:  4.01, time: 16.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:134, Val_loss:  9.41, time: 15.77, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Epoch:279, Val_loss:  5.63, time: 12.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:133, Val_loss:  9.13, time: 21.04, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Epoch:278, Val_loss:  3.76, time: 17.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:132, Val_loss:  8.81, time: 22.62, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Epoch:277, Val_loss:  5.84, time: 16.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:131, Val_loss:  9.69, time: 25.27, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Epoch:276, Val_loss:  3.87, time: 17.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:130, Val_loss:  8.90, time: 26.39, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Epoch:275, Val_loss:  6.21, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:129, Val_loss:  9.50, time: 20.57, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Epoch:274, Val_loss:  3.89, time: 16.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:128, Val_loss:  8.76, time: 19.60, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Epoch:273, Val_loss:  6.15, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:127, Val_loss:  9.75, time: 24.08, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Epoch:272, Val_loss:  3.98, time: 13.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:126, Val_loss:  7.75, time: 22.58, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Epoch:271, Val_loss:  5.38, time: 21.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:125, Val_loss: 10.34, time: 26.51, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Epoch:270, Val_loss:  4.30, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:124, Val_loss:  7.65, time: 19.74, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Epoch:269, Val_loss:  5.62, time: 13.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:123, Val_loss:  8.52, time: 25.16, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Epoch:268, Val_loss:  4.65, time: 11.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:122, Val_loss:  9.61, time: 23.49, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Epoch:267, Val_loss:  5.48, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:121, Val_loss:  8.29, time: 19.59, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Epoch:266, Val_loss:  4.93, time: 15.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:120, Val_loss:  9.55, time: 20.80, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Epoch:265, Val_loss:  5.89, time: 14.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:119, Val_loss:  8.51, time: 22.81, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Epoch:264, Val_loss:  5.15, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:118, Val_loss:  8.36, time: 20.01, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Epoch:263, Val_loss:  6.47, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:117, Val_loss:  7.86, time: 17.57, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Epoch:262, Val_loss:  5.20, time: 13.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:116, Val_loss:  6.49, time: 24.01, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Epoch:261, Val_loss:  6.70, time: 15.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:115, Val_loss:  7.16, time: 17.44, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Epoch:260, Val_loss:  4.30, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:114, Val_loss:  7.49, time: 18.51, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Epoch:259, Val_loss:  6.39, time: 14.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:113, Val_loss:  2.90, time: 20.35, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Epoch:258, Val_loss:  4.72, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:112, Val_loss:  3.02, time: 18.84, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Epoch:257, Val_loss:  6.64, time: 20.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:111, Val_loss:  3.06, time: 19.29, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Epoch:256, Val_loss:  4.59, time: 15.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:110, Val_loss:  3.06, time: 20.85, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Epoch:255, Val_loss:  7.32, time: 16.30, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:109, Val_loss:  2.97, time: 16.68, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Epoch:254, Val_loss:  4.79, time: 16.92, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:108, Val_loss:  3.03, time: 21.36, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Epoch:253, Val_loss:  7.12, time: 16.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:107, Val_loss:  2.91, time: 24.36, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Epoch:252, Val_loss:  6.40, time: 17.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:106, Val_loss:  2.89, time: 19.48, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Epoch:251, Val_loss:  4.57, time: 18.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:105, Val_loss:  3.00, time: 22.81, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Epoch:250, Val_loss:  6.20, time: 15.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:104, Val_loss:  2.92, time: 18.75, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Epoch:249, Val_loss:  3.66, time: 12.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:103, Val_loss:  3.16, time: 22.26, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Epoch:248, Val_loss:  6.15, time: 17.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:102, Val_loss:  2.89, time: 22.47, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Epoch:247, Val_loss:  4.09, time: 16.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:101, Val_loss:  3.14, time: 22.92, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Epoch:246, Val_loss:  6.44, time: 17.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:100, Val_loss:  2.93, time: 24.64, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Epoch:245, Val_loss:  3.88, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 99, Val_loss:  2.91, time: 22.08, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Epoch:244, Val_loss:  6.54, time: 13.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 98, Val_loss:  2.68, time: 19.74, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Epoch:243, Val_loss:  3.79, time: 17.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 97, Val_loss:  3.08, time: 25.94, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Epoch:242, Val_loss:  5.50, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 96, Val_loss:  2.81, time: 21.45, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Epoch:241, Val_loss:  5.06, time: 14.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 95, Val_loss:  3.04, time: 25.35, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Epoch:240, Val_loss:  5.35, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 94, Val_loss:  2.82, time: 21.16, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Epoch:239, Val_loss:  5.90, time: 11.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 93, Val_loss:  3.08, time: 17.93, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Epoch:238, Val_loss:  4.97, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 92, Val_loss:  2.90, time: 17.93, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Epoch:237, Val_loss:  5.90, time: 14.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 91, Val_loss:  3.04, time: 19.75, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Epoch:236, Val_loss:  3.75, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 90, Val_loss:  2.91, time: 18.41, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Epoch:235, Val_loss:  6.91, time: 16.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 89, Val_loss:  3.10, time: 20.98, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Epoch:234, Val_loss:  3.35, time: 15.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 88, Val_loss:  2.99, time: 20.13, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Epoch:233, Val_loss:  5.52, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 87, Val_loss:  3.02, time: 19.90, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Epoch:232, Val_loss:  4.01, time: 15.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 86, Val_loss:  2.81, time: 24.11, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Epoch:231, Val_loss:  5.97, time: 12.78, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 85, Val_loss:  3.06, time: 24.27, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Epoch:230, Val_loss:  3.98, time: 18.03, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 84, Val_loss:  2.85, time: 21.57, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Epoch:229, Val_loss:  5.17, time: 16.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 83, Val_loss:  3.08, time: 23.34, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Epoch:228, Val_loss:  4.63, time: 19.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 82, Val_loss:  2.79, time: 17.61, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Epoch:227, Val_loss:  5.32, time: 16.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 81, Val_loss:  2.97, time: 17.03, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Epoch:226, Val_loss:  4.95, time: 14.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 80, Val_loss:  2.79, time: 18.97, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Epoch:225, Val_loss:  4.86, time: 19.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 79, Val_loss:  3.00, time: 15.64, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Epoch:224, Val_loss:  5.00, time: 14.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 78, Val_loss:  2.96, time: 16.71, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Epoch:223, Val_loss:  5.17, time: 14.89, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 77, Val_loss:  2.92, time: 20.46, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Epoch:222, Val_loss:  4.97, time: 16.34, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 76, Val_loss:  2.90, time: 17.30, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Epoch:221, Val_loss:  4.42, time: 14.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 75, Val_loss:  2.99, time: 19.27, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Epoch:220, Val_loss:  5.39, time: 17.45, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 74, Val_loss:  2.77, time: 14.89, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Epoch:219, Val_loss:  3.93, time: 11.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 73, Val_loss:  2.80, time: 15.80, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Epoch:218, Val_loss:  5.42, time: 13.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 72, Val_loss:  3.01, time: 15.79, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Epoch:217, Val_loss:  4.08, time: 20.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 71, Val_loss:  3.08, time: 17.29, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Epoch:216, Val_loss:  5.61, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 70, Val_loss:  2.80, time: 21.51, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Epoch:215, Val_loss:  4.45, time: 16.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 69, Val_loss:  3.04, time: 22.37, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Epoch:214, Val_loss:  5.97, time: 15.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 68, Val_loss:  2.93, time: 20.25, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Epoch:213, Val_loss:  4.62, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 67, Val_loss:  3.01, time: 18.01, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Epoch:212, Val_loss:  5.81, time: 13.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 66, Val_loss:  2.84, time: 16.88, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Epoch:211, Val_loss:  4.63, time: 13.56, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 65, Val_loss:  2.96, time: 18.16, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Epoch:210, Val_loss:  6.04, time: 16.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 64, Val_loss:  2.92, time: 26.43, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Epoch:209, Val_loss:  4.65, time: 16.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 63, Val_loss:  2.89, time: 24.04, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Epoch:208, Val_loss:  6.21, time: 16.42, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 62, Val_loss:  3.03, time: 18.95, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Epoch:207, Val_loss:  5.53, time: 17.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 61, Val_loss:  2.83, time: 23.57, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Epoch:206, Val_loss:  5.44, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 60, Val_loss:  2.89, time: 18.90, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Epoch:205, Val_loss:  5.27, time: 10.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 59, Val_loss:  2.82, time: 17.98, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Epoch:204, Val_loss:  6.32, time: 15.91, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 58, Val_loss:  2.99, time: 16.77, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Epoch:203, Val_loss:  5.14, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 57, Val_loss:  2.80, time: 21.93, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Epoch:202, Val_loss:  6.49, time: 12.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 56, Val_loss:  2.93, time: 16.44, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Epoch:201, Val_loss:  5.12, time: 23.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 55, Val_loss:  2.72, time: 20.70, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Epoch:200, Val_loss:  6.68, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 54, Val_loss:  2.99, time: 19.91, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Epoch:199, Val_loss:  5.41, time: 12.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 53, Val_loss:  2.87, time: 16.75, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Epoch:198, Val_loss:  6.15, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 52, Val_loss:  3.05, time: 17.59, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Epoch:197, Val_loss:  4.97, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 51, Val_loss:  2.86, time: 20.45, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Epoch:196, Val_loss:  6.82, time: 16.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 50, Val_loss:  2.98, time: 16.65, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Epoch:195, Val_loss:  4.19, time: 17.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 49, Val_loss:  2.79, time: 20.58, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Epoch:194, Val_loss:  6.57, time: 21.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 48, Val_loss:  2.96, time: 18.01, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Epoch:193, Val_loss:  3.16, time: 17.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 47, Val_loss:  2.82, time: 19.76, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Epoch:192, Val_loss:  6.32, time: 15.96, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 46, Val_loss:  3.02, time: 18.50, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Epoch:191, Val_loss:  3.56, time: 18.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 45, Val_loss:  2.82, time: 15.79, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Epoch:190, Val_loss:  6.29, time: 18.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 44, Val_loss:  3.00, time: 15.50, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Epoch:189, Val_loss:  3.63, time: 17.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 43, Val_loss:  2.91, time: 15.79, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Epoch:188, Val_loss:  7.11, time: 16.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 42, Val_loss:  2.95, time: 15.32, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Epoch:187, Val_loss:  3.60, time: 13.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 41, Val_loss:  2.99, time: 21.91, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Epoch:186, Val_loss:  6.25, time: 14.43, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 40, Val_loss:  2.94, time: 17.83, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Epoch:185, Val_loss:  3.34, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 39, Val_loss:  3.08, time: 16.82, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Epoch:184, Val_loss:  6.22, time: 13.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 38, Val_loss:  2.87, time: 16.00, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Epoch:183, Val_loss:  4.17, time: 13.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 37, Val_loss:  3.05, time: 16.27, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Epoch:182, Val_loss:  6.00, time: 14.41, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 36, Val_loss:  3.03, time: 22.83, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Epoch:181, Val_loss:  4.40, time: 12.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 35, Val_loss:  3.13, time: 20.54, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Epoch:180, Val_loss:  6.95, time: 12.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 34, Val_loss:  3.07, time: 23.56, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Epoch:179, Val_loss:  5.23, time: 16.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 33, Val_loss:  3.03, time: 20.63, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Epoch:178, Val_loss:  5.78, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 32, Val_loss:  3.10, time: 18.86, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Epoch:177, Val_loss:  5.50, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 31, Val_loss:  2.99, time: 17.92, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Epoch:176, Val_loss:  6.19, time: 20.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 30, Val_loss:  2.98, time: 17.86, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Epoch:175, Val_loss:  5.96, time: 14.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 29, Val_loss:  3.01, time: 21.85, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Epoch:174, Val_loss:  6.73, time: 11.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 28, Val_loss:  2.98, time: 17.26, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Epoch:173, Val_loss:  6.11, time: 15.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 27, Val_loss:  2.97, time: 21.80, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Epoch:172, Val_loss:  6.95, time: 15.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 26, Val_loss:  3.07, time: 24.81, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Epoch:171, Val_loss:  6.30, time: 14.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 25, Val_loss:  3.02, time: 27.63, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Epoch:170, Val_loss:  6.56, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 24, Val_loss:  3.03, time: 24.77, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Epoch:169, Val_loss:  5.38, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 23, Val_loss:  2.94, time: 16.79, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Epoch:168, Val_loss:  9.42, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 22, Val_loss:  3.04, time: 20.82, test_Acc:  39.25, test_bacc:  36.60, test_f1:  31.45</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Epoch:167, Val_loss:  3.89, time: 18.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 21, Val_loss:  2.95, time: 20.76, test_Acc:  40.35, test_bacc:  37.67, test_f1:  31.67</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Epoch:166, Val_loss:  6.71, time: 14.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 20, Val_loss:  3.08, time: 18.39, test_Acc:  40.35, test_bacc:  37.67, test_f1:  31.67</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Epoch:165, Val_loss:  4.43, time: 13.95, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 19, Val_loss:  3.00, time: 20.54, test_Acc:  40.13, test_bacc:  37.76, test_f1:  31.77</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Epoch:164, Val_loss:  6.03, time: 14.75, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 18, Val_loss:  2.93, time: 21.44, test_Acc:  40.13, test_bacc:  37.76, test_f1:  31.77</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Epoch:163, Val_loss:  5.03, time: 16.12, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 17, Val_loss:  3.01, time: 17.19, test_Acc:  40.13, test_bacc:  37.76, test_f1:  31.77</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Epoch:162, Val_loss:  5.57, time: 17.59, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 16, Val_loss:  2.92, time: 19.14, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Epoch:161, Val_loss:  5.34, time: 19.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 15, Val_loss:  2.99, time: 17.11, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Epoch:160, Val_loss:  4.97, time: 18.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 14, Val_loss:  2.92, time: 23.80, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Epoch:159, Val_loss:  5.87, time: 14.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 13, Val_loss:  2.98, time: 20.18, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Epoch:158, Val_loss:  4.08, time: 13.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 12, Val_loss:  2.97, time: 22.73, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Epoch:157, Val_loss:  5.44, time: 12.55, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 11, Val_loss:  3.04, time: 22.40, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Epoch:156, Val_loss:  4.49, time: 17.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch: 10, Val_loss:  3.02, time: 23.28, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Epoch:155, Val_loss:  5.11, time: 13.50, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  9, Val_loss:  3.05, time: 18.13, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Epoch:154, Val_loss:  4.57, time: 11.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  8, Val_loss:  3.06, time: 21.72, test_Acc:  37.94, test_bacc:  35.48, test_f1:  27.83</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Epoch:153, Val_loss:  5.15, time: 11.69, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  7, Val_loss:  3.11, time: 17.18, test_Acc:  37.94, test_bacc:  35.54, test_f1:  27.86</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Epoch:152, Val_loss:  4.46, time: 12.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  6, Val_loss:  3.14, time: 20.38, test_Acc:  36.84, test_bacc:  34.58, test_f1:  26.72</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Epoch:151, Val_loss:  5.62, time: 15.85, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  5, Val_loss:  3.32, time: 26.11, test_Acc:  37.06, test_bacc:  34.98, test_f1:  27.52</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Epoch:150, Val_loss:  4.16, time: 16.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  4, Val_loss:  3.50, time: 27.37, test_Acc:  36.40, test_bacc:  34.43, test_f1:  26.63</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Epoch:149, Val_loss:  5.50, time: 13.90, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  3, Val_loss:  3.75, time: 25.21, test_Acc:  35.31, test_bacc:  33.44, test_f1:  25.88</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Epoch:148, Val_loss:  4.40, time: 14.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  2, Val_loss:  4.10, time: 26.74, test_Acc:  34.65, test_bacc:  33.17, test_f1:  25.03</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Epoch:147, Val_loss:  5.82, time: 13.00, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
+          <t>Epoch:  1, Val_loss:  4.58, time: 30.32, test_Acc:  33.55, test_bacc:  32.34, test_f1:  24.27</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Epoch:146, Val_loss:  5.36, time: 15.36, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Epoch:145, Val_loss:  6.02, time: 14.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Epoch:144, Val_loss:  5.94, time: 19.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Epoch:143, Val_loss:  5.95, time: 15.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Epoch:142, Val_loss:  6.09, time: 13.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Epoch:141, Val_loss:  6.35, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Epoch:140, Val_loss:  5.77, time: 11.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Epoch:139, Val_loss:  6.57, time: 14.28, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Epoch:138, Val_loss:  5.66, time: 14.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Epoch:137, Val_loss:  7.36, time: 15.49, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Epoch:136, Val_loss:  5.24, time: 20.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Epoch:135, Val_loss:  7.32, time: 15.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Epoch:134, Val_loss:  5.20, time: 12.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Epoch:133, Val_loss:  7.76, time: 15.06, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Epoch:132, Val_loss:  4.96, time: 13.33, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Epoch:131, Val_loss:  7.32, time: 14.15, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Epoch:130, Val_loss:  5.15, time: 13.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Epoch:129, Val_loss:  7.93, time: 19.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Epoch:128, Val_loss:  5.24, time: 15.79, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Epoch:127, Val_loss:  7.68, time: 13.60, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Epoch:126, Val_loss:  5.53, time: 16.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Epoch:125, Val_loss:  8.10, time: 14.71, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Epoch:124, Val_loss:  5.51, time: 17.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Epoch:123, Val_loss:  8.24, time: 16.98, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Epoch:122, Val_loss:  5.57, time: 17.82, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Epoch:121, Val_loss:  8.65, time: 13.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Epoch:120, Val_loss:  5.63, time: 14.39, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Epoch:119, Val_loss:  9.31, time: 15.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Epoch:118, Val_loss:  5.33, time: 13.40, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Epoch:117, Val_loss:  9.55, time: 15.38, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Epoch:116, Val_loss:  5.31, time: 15.44, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Epoch:115, Val_loss:  9.01, time: 16.66, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Epoch:114, Val_loss:  7.23, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Epoch:113, Val_loss:  3.84, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Epoch:112, Val_loss:  6.01, time: 13.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Epoch:111, Val_loss:  2.98, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Epoch:110, Val_loss:  2.68, time: 15.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Epoch:109, Val_loss:  3.00, time: 15.97, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Epoch:108, Val_loss:  2.66, time: 14.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Epoch:107, Val_loss:  3.04, time: 15.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Epoch:106, Val_loss:  2.61, time: 15.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Epoch:105, Val_loss:  3.05, time: 17.20, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Epoch:104, Val_loss:  2.60, time: 11.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Epoch:103, Val_loss:  2.86, time: 16.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Epoch:102, Val_loss:  2.59, time: 20.31, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Epoch:101, Val_loss:  2.96, time: 19.63, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Epoch:100, Val_loss:  2.59, time: 16.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Epoch: 99, Val_loss:  3.00, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Epoch: 98, Val_loss:  2.59, time: 14.19, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Epoch: 97, Val_loss:  3.04, time: 14.67, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Epoch: 96, Val_loss:  2.71, time: 12.93, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Epoch: 95, Val_loss:  2.98, time: 17.53, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Epoch: 94, Val_loss:  2.60, time: 20.16, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Epoch: 93, Val_loss:  2.97, time: 20.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Epoch: 92, Val_loss:  2.63, time: 18.18, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Epoch: 91, Val_loss:  2.91, time: 13.29, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Epoch: 90, Val_loss:  2.66, time: 14.94, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Epoch: 89, Val_loss:  2.98, time: 11.73, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Epoch: 88, Val_loss:  2.65, time: 13.08, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Epoch: 87, Val_loss:  3.01, time: 17.77, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>Epoch: 86, Val_loss:  2.65, time: 14.61, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>Epoch: 85, Val_loss:  2.95, time: 13.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>Epoch: 84, Val_loss:  2.63, time: 13.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>Epoch: 83, Val_loss:  2.95, time: 13.35, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>Epoch: 82, Val_loss:  2.62, time: 14.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>Epoch: 81, Val_loss:  2.88, time: 16.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>Epoch: 80, Val_loss:  2.61, time: 16.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>Epoch: 79, Val_loss:  2.86, time: 17.72, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Epoch: 78, Val_loss:  2.64, time: 14.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>Epoch: 77, Val_loss:  2.98, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>Epoch: 76, Val_loss:  2.57, time: 14.32, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>Epoch: 75, Val_loss:  2.98, time: 13.58, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>Epoch: 74, Val_loss:  2.68, time: 14.21, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Epoch: 73, Val_loss:  2.89, time: 12.22, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>Epoch: 72, Val_loss:  2.64, time: 14.52, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>Epoch: 71, Val_loss:  3.00, time: 12.23, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>Epoch: 70, Val_loss:  2.60, time: 17.26, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>Epoch: 69, Val_loss:  2.92, time: 15.74, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>Epoch: 68, Val_loss:  2.59, time: 16.25, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>Epoch: 67, Val_loss:  2.79, time: 16.54, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>Epoch: 66, Val_loss:  2.68, time: 20.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>Epoch: 65, Val_loss:  2.87, time: 19.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>Epoch: 64, Val_loss:  2.67, time: 14.47, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>Epoch: 63, Val_loss:  2.91, time: 17.70, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>Epoch: 62, Val_loss:  2.62, time: 15.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>Epoch: 61, Val_loss:  2.88, time: 16.76, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>Epoch: 60, Val_loss:  2.65, time: 20.99, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>Epoch: 59, Val_loss:  2.91, time: 17.07, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>Epoch: 58, Val_loss:  2.65, time: 15.37, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>Epoch: 57, Val_loss:  2.78, time: 13.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>Epoch: 56, Val_loss:  2.61, time: 18.14, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>Epoch: 55, Val_loss:  2.82, time: 12.10, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>Epoch: 54, Val_loss:  2.63, time: 16.05, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>Epoch: 53, Val_loss:  2.87, time: 12.65, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>Epoch: 52, Val_loss:  2.66, time: 18.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>Epoch: 51, Val_loss:  2.86, time: 20.02, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>Epoch: 50, Val_loss:  2.66, time: 11.88, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>Epoch: 49, Val_loss:  2.83, time: 14.80, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>Epoch: 48, Val_loss:  2.70, time: 14.84, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>Epoch: 47, Val_loss:  2.71, time: 12.64, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>Epoch: 46, Val_loss:  2.67, time: 11.01, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Epoch: 45, Val_loss:  2.93, time: 15.13, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>Epoch: 44, Val_loss:  2.65, time: 14.17, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>Epoch: 43, Val_loss:  2.82, time: 17.24, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>Epoch: 42, Val_loss:  2.67, time: 16.46, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>Epoch: 41, Val_loss:  2.85, time: 18.51, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>Epoch: 40, Val_loss:  2.64, time: 27.27, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>Epoch: 39, Val_loss:  2.83, time: 20.81, test_Acc:  33.99, test_bacc:  33.56, test_f1:  25.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>Epoch: 38, Val_loss:  2.70, time: 17.28, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>Epoch: 37, Val_loss:  2.80, time: 20.36, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>Epoch: 36, Val_loss:  2.79, time: 15.68, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>Epoch: 35, Val_loss:  2.73, time: 16.54, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>Epoch: 34, Val_loss:  2.81, time: 15.21, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>Epoch: 33, Val_loss:  2.71, time: 21.91, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>Epoch: 32, Val_loss:  2.71, time: 17.24, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>Epoch: 31, Val_loss:  2.76, time: 21.08, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>Epoch: 30, Val_loss:  2.74, time: 16.98, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>Epoch: 29, Val_loss:  2.81, time: 14.69, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>Epoch: 28, Val_loss:  2.72, time: 13.01, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>Epoch: 27, Val_loss:  2.84, time: 22.84, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>Epoch: 26, Val_loss:  2.77, time: 14.48, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>Epoch: 25, Val_loss:  2.78, time: 19.02, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>Epoch: 24, Val_loss:  2.75, time: 17.41, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>Epoch: 23, Val_loss:  2.72, time: 12.99, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>Epoch: 22, Val_loss:  2.85, time: 14.56, test_Acc:  36.62, test_bacc:  36.21, test_f1:  27.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>Epoch: 21, Val_loss:  2.81, time: 18.81, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>Epoch: 20, Val_loss:  2.83, time: 15.61, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>Epoch: 19, Val_loss:  2.85, time: 16.00, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>Epoch: 18, Val_loss:  2.83, time: 16.32, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>Epoch: 17, Val_loss:  2.83, time: 18.37, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>Epoch: 16, Val_loss:  2.90, time: 15.43, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>Epoch: 15, Val_loss:  2.86, time: 17.98, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>Epoch: 14, Val_loss:  2.97, time: 15.48, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>Epoch: 13, Val_loss:  2.88, time: 15.64, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>Epoch: 12, Val_loss:  2.94, time: 14.68, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>Epoch: 11, Val_loss:  2.94, time: 13.05, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>Epoch: 10, Val_loss:  2.93, time: 14.75, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>Epoch:  9, Val_loss:  2.99, time: 15.88, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>Epoch:  8, Val_loss:  3.03, time: 22.86, test_Acc:  38.60, test_bacc:  37.82, test_f1:  28.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>Epoch:  7, Val_loss:  3.07, time: 14.35, test_Acc:  39.04, test_bacc:  38.29, test_f1:  29.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>Epoch:  6, Val_loss:  3.08, time: 13.46, test_Acc:  39.25, test_bacc:  38.52, test_f1:  29.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>Epoch:  5, Val_loss:  3.18, time: 35.86, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>Epoch:  4, Val_loss:  3.28, time: 30.30, test_Acc:  38.60, test_bacc:  37.63, test_f1:  28.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>Epoch:  3, Val_loss:  3.40, time: 26.82, test_Acc:  38.38, test_bacc:  37.34, test_f1:  28.51</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>Epoch:  2, Val_loss:  3.60, time: 32.31, test_Acc:  38.60, test_bacc:  37.44, test_f1:  28.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>Epoch:  1, Val_loss:  3.85, time: 27.89, test_Acc:  37.94, test_bacc:  36.57, test_f1:  27.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>Epoch:  0, Val_loss:  4.18, time: 30.95, test_Acc:  37.72, test_bacc:  36.32, test_f1:  26.75</t>
+          <t>Epoch:  0, Val_loss:  5.17, time: 27.90, test_Acc:  30.92, test_bacc:  30.25, test_f1:  22.63</t>
         </is>
       </c>
     </row>
